--- a/Pregnant_woman.xlsx
+++ b/Pregnant_woman.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M379"/>
+  <dimension ref="A1:M386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10599,6 +10599,11 @@
           <t>Mushin</t>
         </is>
       </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>LVASA/16/72/18</t>
+        </is>
+      </c>
       <c r="I173" t="inlineStr">
         <is>
           <t>tab12</t>
@@ -10656,6 +10661,11 @@
           <t>Apapa</t>
         </is>
       </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>LVASA/5/548/1</t>
+        </is>
+      </c>
       <c r="I174" t="inlineStr">
         <is>
           <t>tab19</t>
@@ -10713,6 +10723,11 @@
           <t>Apapa</t>
         </is>
       </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>LVASA/5/548/9</t>
+        </is>
+      </c>
       <c r="I175" t="inlineStr">
         <is>
           <t>tab19</t>
@@ -10770,6 +10785,11 @@
           <t>Apapa</t>
         </is>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>LVASA/5/548/9</t>
+        </is>
+      </c>
       <c r="I176" t="inlineStr">
         <is>
           <t>tab19</t>
@@ -10827,6 +10847,11 @@
           <t>Epe</t>
         </is>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>LVASA/7/94/19</t>
+        </is>
+      </c>
       <c r="I177" t="inlineStr">
         <is>
           <t>tab16</t>
@@ -10884,6 +10909,11 @@
           <t>Epe</t>
         </is>
       </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>LVASA/7/94/19</t>
+        </is>
+      </c>
       <c r="I178" t="inlineStr">
         <is>
           <t>tab16</t>
@@ -10941,6 +10971,11 @@
           <t>Epe</t>
         </is>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>LVASA/7/94/22</t>
+        </is>
+      </c>
       <c r="I179" t="inlineStr">
         <is>
           <t>tab16</t>
@@ -10998,6 +11033,11 @@
           <t>Epe</t>
         </is>
       </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>LVASA/7/94/28</t>
+        </is>
+      </c>
       <c r="I180" t="inlineStr">
         <is>
           <t>tab16</t>
@@ -11055,6 +11095,11 @@
           <t>Epe</t>
         </is>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>LVASA/7/94/31</t>
+        </is>
+      </c>
       <c r="I181" t="inlineStr">
         <is>
           <t>tab16</t>
@@ -11112,6 +11157,11 @@
           <t>Epe</t>
         </is>
       </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>LVASA/7/94/33</t>
+        </is>
+      </c>
       <c r="I182" t="inlineStr">
         <is>
           <t>tab16</t>
@@ -11169,6 +11219,11 @@
           <t>Epe</t>
         </is>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>LVASA/7/94/33</t>
+        </is>
+      </c>
       <c r="I183" t="inlineStr">
         <is>
           <t>tab16</t>
@@ -11226,6 +11281,11 @@
           <t>Lagos Mainland</t>
         </is>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>LVASA/15/782/17</t>
+        </is>
+      </c>
       <c r="I184" t="inlineStr">
         <is>
           <t>tab6</t>
@@ -11283,6 +11343,11 @@
           <t>Lagos Mainland</t>
         </is>
       </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>LVASA/15/782/19</t>
+        </is>
+      </c>
       <c r="I185" t="inlineStr">
         <is>
           <t>tab6</t>
@@ -23035,6 +23100,415 @@
         </is>
       </c>
       <c r="M379" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>6236</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D380">
+        <v>25</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45482</v>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Oshodi-Isolo</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>LVASA/18/96/22</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>tab9</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>UGOCHUKWU OBINNA
+YEKINI MUSIBAU</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>6241</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D381">
+        <v>29</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45420</v>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Oshodi-Isolo</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>LVASA/18/96/27</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>tab9</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>UGOCHUKWU OBINNA
+YEKINI MUSIBAU</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>6304</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D382">
+        <v>25</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45518</v>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>LVASA/6/1660/10</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>6318</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D383">
+        <v>26</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45519</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>6367</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>5984</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D384">
+        <v>27</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45399</v>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>6367</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>5984</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D385">
+        <v>31</v>
+      </c>
+      <c r="E385" s="2">
+        <v>45496</v>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>6371</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>5988</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D386">
+        <v>30</v>
+      </c>
+      <c r="E386" s="2">
+        <v>45519</v>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M386" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Pregnant_woman.xlsx
+++ b/Pregnant_woman.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q389"/>
+  <dimension ref="A1:Q399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28028,7 +28028,12 @@
     </row>
     <row r="381">
       <c r="A381">
-        <v>6241</v>
+        <v>6236</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -28036,10 +28041,10 @@
         </is>
       </c>
       <c r="D381">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E381" s="2">
-        <v>45420</v>
+        <v>45482</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
@@ -28061,12 +28066,12 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12 osula Street off Fagbola Street Oshodi isolo Lagos</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>LVASA/18/96/27</t>
+          <t>LVASA/18/96/22</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
@@ -28076,7 +28081,7 @@
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -28098,528 +28103,1213 @@
     </row>
     <row r="382">
       <c r="A382">
+        <v>6241</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D382">
+        <v>29</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45420</v>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Oshodi-Isolo</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>IJAODOLA / OLORI STREET, SHOGUNLE</t>
+        </is>
+      </c>
+      <c r="I382">
+        <v>96</v>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>LVASA/18/96/27</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>tab9</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>UGOCHUKWU OBINNA
+YEKINI MUSIBAU</t>
+        </is>
+      </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q382" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>6249</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D383">
+        <v>37</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45367</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="I383">
+        <v>4028</v>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>6 Alafia street shasha</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>LVASA/3/4028/1</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>tab17</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P383" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q383" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
         <v>6304</v>
       </c>
-      <c r="B382" t="inlineStr">
+      <c r="B384" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D382">
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D384">
         <v>25</v>
       </c>
-      <c r="E382" s="2">
+      <c r="E384" s="2">
         <v>45518</v>
       </c>
-      <c r="F382" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G382" t="inlineStr">
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
         <is>
           <t>Badagry</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
+      <c r="H384" t="inlineStr">
         <is>
           <t>AYEDUN BUSTOP, MOWO</t>
         </is>
       </c>
-      <c r="I382">
+      <c r="I384">
         <v>1660</v>
       </c>
-      <c r="J382" t="inlineStr">
+      <c r="J384" t="inlineStr">
         <is>
           <t>C&amp;S, Alafia Church off ikoga road Movo Badagry.</t>
         </is>
       </c>
-      <c r="L382" t="inlineStr">
+      <c r="L384" t="inlineStr">
         <is>
           <t>LVASA/6/1660/10</t>
         </is>
       </c>
-      <c r="M382" t="inlineStr">
+      <c r="M384" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="N382" t="inlineStr">
+      <c r="N384" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="O382" t="inlineStr">
+      <c r="O384" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="P382" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q382" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383">
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q384" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>6304</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D385">
+        <v>25</v>
+      </c>
+      <c r="E385" s="2">
+        <v>45518</v>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>AYEDUN BUSTOP, MOWO</t>
+        </is>
+      </c>
+      <c r="I385">
+        <v>1660</v>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>C&amp;S, Alafia Church off ikoga road Movo Badagry.</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>LVASA/6/1660/10</t>
+        </is>
+      </c>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P385" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q385" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
         <v>6318</v>
       </c>
-      <c r="B383" t="inlineStr">
+      <c r="B386" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D383">
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D386">
         <v>26</v>
       </c>
-      <c r="E383" s="2">
+      <c r="E386" s="2">
         <v>45519</v>
       </c>
-      <c r="F383" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G383" t="inlineStr">
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
         <is>
           <t>Ibeju-Lekki</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
+      <c r="H386" t="inlineStr">
         <is>
           <t>OKO LOMI, BOGIJE</t>
         </is>
       </c>
-      <c r="J383" t="inlineStr">
+      <c r="J386" t="inlineStr">
         <is>
           <t>Opposite Ahmed Tinubu Road, ologunabo street</t>
         </is>
       </c>
-      <c r="M383" t="inlineStr">
+      <c r="M386" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="N383" t="inlineStr">
+      <c r="N386" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="O383" t="inlineStr">
+      <c r="O386" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="P383" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q383" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384">
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q386" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>6318</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D387">
+        <v>26</v>
+      </c>
+      <c r="E387" s="2">
+        <v>45519</v>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>OKO LOMI, BOGIJE</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Opposite Ahmed Tinubu Road, ologunabo street</t>
+        </is>
+      </c>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="P387" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q387" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
         <v>6367</v>
       </c>
-      <c r="B384" t="inlineStr">
+      <c r="B388" t="inlineStr">
         <is>
           <t>5984</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D384">
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D388">
         <v>27</v>
       </c>
-      <c r="E384" s="2">
+      <c r="E388" s="2">
         <v>45399</v>
       </c>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G384" t="inlineStr">
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
         <is>
           <t>Agege</t>
         </is>
       </c>
-      <c r="J384" t="inlineStr">
+      <c r="J388" t="inlineStr">
         <is>
           <t>76 Shitta street</t>
         </is>
       </c>
-      <c r="M384" t="inlineStr">
+      <c r="M388" t="inlineStr">
         <is>
           <t>tab7</t>
         </is>
       </c>
-      <c r="N384" t="inlineStr">
+      <c r="N388" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="O384" t="inlineStr">
+      <c r="O388" t="inlineStr">
         <is>
           <t>EDOJAH RUTH HAPPINESS
 OLABIYI OLAJIDE</t>
         </is>
       </c>
-      <c r="P384" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q384" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385">
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q388" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
         <v>6367</v>
       </c>
-      <c r="B385" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>5984</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D385">
-        <v>31</v>
-      </c>
-      <c r="E385" s="2">
-        <v>45496</v>
-      </c>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G385" t="inlineStr">
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D389">
+        <v>27</v>
+      </c>
+      <c r="E389" s="2">
+        <v>45399</v>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
         <is>
           <t>Agege</t>
         </is>
       </c>
-      <c r="J385" t="inlineStr">
+      <c r="J389" t="inlineStr">
         <is>
           <t>76 Shitta street</t>
         </is>
       </c>
-      <c r="M385" t="inlineStr">
+      <c r="M389" t="inlineStr">
         <is>
           <t>tab7</t>
         </is>
       </c>
-      <c r="N385" t="inlineStr">
+      <c r="N389" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="O385" t="inlineStr">
+      <c r="O389" t="inlineStr">
         <is>
           <t>EDOJAH RUTH HAPPINESS
 OLABIYI OLAJIDE</t>
         </is>
       </c>
-      <c r="P385" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q385" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386">
-        <v>6371</v>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>5988</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D386">
-        <v>30</v>
-      </c>
-      <c r="E386" s="2">
-        <v>45519</v>
-      </c>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G386" t="inlineStr">
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q389" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>6367</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>5984</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D390">
+        <v>31</v>
+      </c>
+      <c r="E390" s="2">
+        <v>45496</v>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
         <is>
           <t>Agege</t>
         </is>
       </c>
-      <c r="J386" t="inlineStr">
-        <is>
-          <t>84 Shitta street</t>
-        </is>
-      </c>
-      <c r="M386" t="inlineStr">
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>76 Shitta street</t>
+        </is>
+      </c>
+      <c r="M390" t="inlineStr">
         <is>
           <t>tab7</t>
         </is>
       </c>
-      <c r="N386" t="inlineStr">
+      <c r="N390" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="O386" t="inlineStr">
+      <c r="O390" t="inlineStr">
         <is>
           <t>EDOJAH RUTH HAPPINESS
 OLABIYI OLAJIDE</t>
         </is>
       </c>
-      <c r="P386" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q386" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387">
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>6367</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>5984</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D391">
+        <v>31</v>
+      </c>
+      <c r="E391" s="2">
+        <v>45496</v>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>76 Shitta street</t>
+        </is>
+      </c>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q391" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>6371</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>5988</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D392">
+        <v>30</v>
+      </c>
+      <c r="E392" s="2">
+        <v>45519</v>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>84 Shitta street</t>
+        </is>
+      </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q392" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>6371</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>5988</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D393">
+        <v>30</v>
+      </c>
+      <c r="E393" s="2">
+        <v>45519</v>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>84 Shitta street</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q393" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
         <v>6379</v>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B394" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D387">
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D394">
         <v>38</v>
       </c>
-      <c r="E387" s="2">
+      <c r="E394" s="2">
         <v>45411</v>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G387" t="inlineStr">
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
         <is>
           <t>Apapa</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
+      <c r="H394" t="inlineStr">
         <is>
           <t>BALE STREET, BADIA</t>
         </is>
       </c>
-      <c r="J387" t="inlineStr">
+      <c r="J394" t="inlineStr">
         <is>
           <t>26b bale street</t>
         </is>
       </c>
-      <c r="M387" t="inlineStr">
+      <c r="M394" t="inlineStr">
         <is>
           <t>tab19</t>
         </is>
       </c>
-      <c r="N387" t="inlineStr">
+      <c r="N394" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="O387" t="inlineStr">
+      <c r="O394" t="inlineStr">
         <is>
           <t>OKUNOLA OLUWATOYIN
 OMOBAMIDELE SESI</t>
         </is>
       </c>
-      <c r="P387" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q387" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388">
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
         <v>6383</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B395" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D388">
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D395">
         <v>38</v>
       </c>
-      <c r="E388" s="2">
+      <c r="E395" s="2">
         <v>45474</v>
       </c>
-      <c r="F388" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G388" t="inlineStr">
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
         <is>
           <t>Apapa</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
+      <c r="H395" t="inlineStr">
         <is>
           <t>BALE STREET, BADIA</t>
         </is>
       </c>
-      <c r="J388" t="inlineStr">
+      <c r="J395" t="inlineStr">
         <is>
           <t>30b bale street</t>
         </is>
       </c>
-      <c r="M388" t="inlineStr">
+      <c r="M395" t="inlineStr">
         <is>
           <t>tab19</t>
         </is>
       </c>
-      <c r="N388" t="inlineStr">
+      <c r="N395" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="O388" t="inlineStr">
+      <c r="O395" t="inlineStr">
         <is>
           <t>OKUNOLA OLUWATOYIN
 OMOBAMIDELE SESI</t>
         </is>
       </c>
-      <c r="P388" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q388" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389">
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
         <v>6387</v>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B396" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D389">
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D396">
         <v>23</v>
       </c>
-      <c r="E389" s="2">
+      <c r="E396" s="2">
         <v>45442</v>
       </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G389" t="inlineStr">
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
         <is>
           <t>Apapa</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
+      <c r="H396" t="inlineStr">
         <is>
           <t>BALE STREET, BADIA</t>
         </is>
       </c>
-      <c r="J389" t="inlineStr">
+      <c r="J396" t="inlineStr">
         <is>
           <t>32 bale street</t>
         </is>
       </c>
-      <c r="M389" t="inlineStr">
+      <c r="M396" t="inlineStr">
         <is>
           <t>tab19</t>
         </is>
       </c>
-      <c r="N389" t="inlineStr">
+      <c r="N396" t="inlineStr">
         <is>
           <t>2024-03-16</t>
         </is>
       </c>
-      <c r="O389" t="inlineStr">
+      <c r="O396" t="inlineStr">
         <is>
           <t>OKUNOLA OLUWATOYIN
 OMOBAMIDELE SESI</t>
         </is>
       </c>
-      <c r="P389" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="Q389" t="inlineStr">
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>6387</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D397">
+        <v>23</v>
+      </c>
+      <c r="E397" s="2">
+        <v>45442</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>BALE STREET, BADIA</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>32 bale street</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>tab19</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>6394</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D398">
+        <v>30</v>
+      </c>
+      <c r="E398" s="2">
+        <v>45455</v>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>CEMETRY/ONDO/H/MACAULEY, EBUTE METTA</t>
+        </is>
+      </c>
+      <c r="I398">
+        <v>1208</v>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>No 15 Ondo street Lagos mainland</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>LVASA/15/1208/7</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>tab10</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>6395</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D399">
+        <v>30</v>
+      </c>
+      <c r="E399" s="2">
+        <v>45611</v>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>CEMETRY/ONDO/H/MACAULEY, EBUTE METTA</t>
+        </is>
+      </c>
+      <c r="I399">
+        <v>1208</v>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>No 13 Ondo street Lagos mainland</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>LVASA/15/1208/8</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>tab10</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q399" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Pregnant_woman.xlsx
+++ b/Pregnant_woman.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q399"/>
+  <dimension ref="A1:Q445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,14 +933,17 @@
           <t>OLIYIDE/ALABA STREET, PAPA-AJAO</t>
         </is>
       </c>
+      <c r="I8">
+        <v>246</v>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>2 Alaba street off Ladipo mushin Lagos</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>LVASA/16/246/11</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1754,9 +1757,17 @@
           <t>8, IMAM STREET, AMUKOKO</t>
         </is>
       </c>
+      <c r="I19">
+        <v>90</v>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>No 8,Imam street Amukoko</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>LVASA/2/90/4</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1821,9 +1832,17 @@
           <t>8, IMAM STREET, AMUKOKO</t>
         </is>
       </c>
+      <c r="I20">
+        <v>90</v>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>No8b Imam street Amukoko</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>LVASA/2/90/5</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -7931,7 +7950,23 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>35</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45451</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7990,7 +8025,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -8049,23 +8084,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D105">
-        <v>35</v>
-      </c>
-      <c r="E105" s="2">
-        <v>45451</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -12164,7 +12183,23 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D161">
+        <v>33</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45487</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -12223,7 +12258,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -12282,7 +12317,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -12341,23 +12376,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D164">
-        <v>33</v>
-      </c>
-      <c r="E164" s="2">
-        <v>45487</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -12491,7 +12510,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -12550,7 +12574,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -12609,12 +12633,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -12804,7 +12823,23 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D171">
+        <v>33</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45461</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -12863,23 +12898,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D172">
-        <v>33</v>
-      </c>
-      <c r="E172" s="2">
-        <v>45461</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -29310,6 +29329,3200 @@
         </is>
       </c>
       <c r="Q399" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>6434</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D400">
+        <v>35</v>
+      </c>
+      <c r="E400" s="2">
+        <v>45458</v>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Somolu</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>ALH. SALISU STREET, OBANIKORO</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>No 31, Alhaji Salisu street Obanikoro</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>tab5</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>AGBALAYA SEKINAT
+OLUDURO CHRISTIANA OLUWATOBI</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401">
+        <v>6434</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D401">
+        <v>35</v>
+      </c>
+      <c r="E401" s="2">
+        <v>45458</v>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Somolu</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>ALH. SALISU STREET, OBANIKORO</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>No 31, Alhaji Salisu street Obanikoro</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>tab5</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>AGBALAYA SEKINAT
+OLUDURO CHRISTIANA OLUWATOBI</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402">
+        <v>6484</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D402">
+        <v>30</v>
+      </c>
+      <c r="E402" s="2">
+        <v>45512</v>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="I402">
+        <v>2762</v>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>8 IFEDORE STREET OFF CAPTAIN DAVIS</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>LVASA/3/2762/50</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403">
+        <v>6484</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D403">
+        <v>30</v>
+      </c>
+      <c r="E403" s="2">
+        <v>45512</v>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="I403">
+        <v>2762</v>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>8 IFEDORE STREET OFF CAPTAIN DAVIS</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>LVASA/3/2762/50</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404">
+        <v>6498</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D404">
+        <v>25</v>
+      </c>
+      <c r="E404" s="2">
+        <v>45483</v>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>ADE OSHODI/ALEBIOSU, IJEGUN</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>Gutter needed</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405">
+        <v>6498</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D405">
+        <v>25</v>
+      </c>
+      <c r="E405" s="2">
+        <v>45483</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>ADE OSHODI/ALEBIOSU, IJEGUN</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>Gutter needed</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406">
+        <v>6532</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D406">
+        <v>31</v>
+      </c>
+      <c r="E406" s="2">
+        <v>45550</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>AGEGE MOTOR ROAD, IDI-ORO</t>
+        </is>
+      </c>
+      <c r="I406">
+        <v>2386</v>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>8A Daniel street off Agege motor Road Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>LVASA/16/2386/11</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407">
+        <v>6571</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D407">
+        <v>37</v>
+      </c>
+      <c r="E407" s="2">
+        <v>45611</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>AKOBI I, IDI - ARABA</t>
+        </is>
+      </c>
+      <c r="I407">
+        <v>882</v>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>16 Caxton close off Akobi crescent Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>LVASA/16/882/16</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408">
+        <v>6589</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D408">
+        <v>38</v>
+      </c>
+      <c r="E408" s="2">
+        <v>45550</v>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>AKOBI I, IDI - ARABA</t>
+        </is>
+      </c>
+      <c r="I408">
+        <v>882</v>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>17 Ogunfunmi street off Akanbi crescent Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>LVASA/16/882/34</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409">
+        <v>6613</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D409">
+        <v>33</v>
+      </c>
+      <c r="E409" s="2">
+        <v>45393</v>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>ISHAGA RD/MALLAM GANA, IDI - ARABA</t>
+        </is>
+      </c>
+      <c r="I409">
+        <v>956</v>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>14 Mallam Gana street off Ishaga road Idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>LVASA/16/956/8</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410">
+        <v>6613</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D410">
+        <v>33</v>
+      </c>
+      <c r="E410" s="2">
+        <v>45393</v>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>ISHAGA RD/MALLAM GANA, IDI - ARABA</t>
+        </is>
+      </c>
+      <c r="I410">
+        <v>956</v>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>14 Mallam Gana street off Ishaga road Idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>LVASA/16/956/8</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411">
+        <v>6621</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D411">
+        <v>29</v>
+      </c>
+      <c r="E411" s="2">
+        <v>45618</v>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>MALLAM GANA/ ISHAGA ROAD, IDI -ARABA</t>
+        </is>
+      </c>
+      <c r="I411">
+        <v>958</v>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>19 Harona street off Ishaga road idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>LVASA/16/958/17</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412">
+        <v>6621</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D412">
+        <v>29</v>
+      </c>
+      <c r="E412" s="2">
+        <v>45618</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>MALLAM GANA/ ISHAGA ROAD, IDI -ARABA</t>
+        </is>
+      </c>
+      <c r="I412">
+        <v>958</v>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>19 Harona street off Ishaga road idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>LVASA/16/958/17</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P412" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413">
+        <v>6621</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D413">
+        <v>34</v>
+      </c>
+      <c r="E413" s="2">
+        <v>45440</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>MALLAM GANA/ ISHAGA ROAD, IDI -ARABA</t>
+        </is>
+      </c>
+      <c r="I413">
+        <v>958</v>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>19 Harona street off Ishaga road idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>LVASA/16/958/17</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414">
+        <v>6621</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D414">
+        <v>34</v>
+      </c>
+      <c r="E414" s="2">
+        <v>45440</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>MALLAM GANA/ ISHAGA ROAD, IDI -ARABA</t>
+        </is>
+      </c>
+      <c r="I414">
+        <v>958</v>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>19 Harona street off Ishaga road idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>LVASA/16/958/17</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415">
+        <v>6628</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D415">
+        <v>20</v>
+      </c>
+      <c r="E415" s="2">
+        <v>45551</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>BABA ALAJA, BADIA</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>2 Sule lane apapa lagos</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416">
+        <v>6630</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D416">
+        <v>25</v>
+      </c>
+      <c r="E416" s="2">
+        <v>45524</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>BABA ALAJA, BADIA</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>5 Sule lane apapa lagos</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="P416" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417">
+        <v>6635</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D417">
+        <v>27</v>
+      </c>
+      <c r="E417" s="2">
+        <v>45524</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>BABA ALAJA, BADIA</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>11 Sule lane apapa lagos</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="P417" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418">
+        <v>6645</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D418">
+        <v>18</v>
+      </c>
+      <c r="E418" s="2">
+        <v>45454</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>BABA ALAJA, BADIA</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>12 Sule lane apapa lagos</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q418" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419">
+        <v>6647</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D419">
+        <v>30</v>
+      </c>
+      <c r="E419" s="2">
+        <v>45391</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>BABA ALAJA, BADIA</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>6 Sule lane apapa lagos</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420">
+        <v>6650</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D420">
+        <v>33</v>
+      </c>
+      <c r="E420" s="2">
+        <v>45488</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>IJEBU ODE RD/ITUN DENDEREN ST, POKA</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>8, Igodo Street Epe</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421">
+        <v>6650</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D421">
+        <v>33</v>
+      </c>
+      <c r="E421" s="2">
+        <v>45488</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>IJEBU ODE RD/ITUN DENDEREN ST, POKA</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>8, Igodo Street Epe</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P421" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422">
+        <v>6664</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D422">
+        <v>31</v>
+      </c>
+      <c r="E422" s="2">
+        <v>45425</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>IJEBU ODE RD/ITUN DENDEREN ST, POKA</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>12, Ita-mefa Street Poka Epe</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423">
+        <v>6664</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D423">
+        <v>31</v>
+      </c>
+      <c r="E423" s="2">
+        <v>45425</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>IJEBU ODE RD/ITUN DENDEREN ST, POKA</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>12, Ita-mefa Street Poka Epe</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424">
+        <v>6670</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D424">
+        <v>32</v>
+      </c>
+      <c r="E424" s="2">
+        <v>45390</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>5, Isale-Igodo</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425">
+        <v>6670</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D425">
+        <v>32</v>
+      </c>
+      <c r="E425" s="2">
+        <v>45390</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>5, Isale-Igodo</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P425" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426">
+        <v>6670</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D426">
+        <v>33</v>
+      </c>
+      <c r="E426" s="2">
+        <v>45425</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>5, Isale-Igodo</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P426" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427">
+        <v>6670</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D427">
+        <v>33</v>
+      </c>
+      <c r="E427" s="2">
+        <v>45425</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>5, Isale-Igodo</t>
+        </is>
+      </c>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P427" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428">
+        <v>6700</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D428">
+        <v>35</v>
+      </c>
+      <c r="E428" s="2">
+        <v>45397</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>32, Bolanle Street, along Pobuna College Road, Poka, Epe</t>
+        </is>
+      </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P428" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429">
+        <v>6709</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D429">
+        <v>35</v>
+      </c>
+      <c r="E429" s="2">
+        <v>45460</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>MAKALEWO ST/POBUNA ROAD, POKA</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>5, Odusami Street, Makalewo Poka Epe</t>
+        </is>
+      </c>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P429" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430">
+        <v>6746</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D430">
+        <v>33</v>
+      </c>
+      <c r="E430" s="2">
+        <v>45550</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>HAZAN STREET, BOGIJE</t>
+        </is>
+      </c>
+      <c r="I430">
+        <v>824</v>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>22, Aileru Street</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>LVASA/9/824/17</t>
+        </is>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="P430" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431">
+        <v>6751</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D431">
+        <v>28</v>
+      </c>
+      <c r="E431" s="2">
+        <v>45641</v>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>HAZAN STREET, BOGIJE</t>
+        </is>
+      </c>
+      <c r="I431">
+        <v>824</v>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>2, Aileru Street. Baba Mustapha House</t>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>LVASA/9/824/23</t>
+        </is>
+      </c>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="P431" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432">
+        <v>6757</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D432">
+        <v>31</v>
+      </c>
+      <c r="E432" s="2">
+        <v>45488</v>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>HAZAN STREET, BOGIJE</t>
+        </is>
+      </c>
+      <c r="I432">
+        <v>824</v>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>Baba Mustapha Street, 2 Aileru</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>LVASA/9/824/31</t>
+        </is>
+      </c>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433">
+        <v>6782</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D433">
+        <v>35</v>
+      </c>
+      <c r="E433" s="2">
+        <v>45427</v>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>AYEDUN BUSTOP, MOWO</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
+        </is>
+      </c>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P433" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434">
+        <v>6817</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D434">
+        <v>31</v>
+      </c>
+      <c r="E434" s="2">
+        <v>45428</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>ERA ROAD/YUSUF ROAD, ILOGBO</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>NO 13B YUSUF OLUKUN STREET, OFF ERA ROAD,  ILOGBO, IYANA ERA BUS STOP, OJO, LAGOS STATE</t>
+        </is>
+      </c>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P434" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435">
+        <v>6819</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D435">
+        <v>29</v>
+      </c>
+      <c r="E435" s="2">
+        <v>45526</v>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>ERA ROAD/YUSUF ROAD, ILOGBO</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>NO 16, YUSUF OLUKUN STREET, OFF ERA ROAD,  ILOGBO, IYANA ERA BUS STOP, OJO, LAGOS STATE</t>
+        </is>
+      </c>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N435" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P435" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436">
+        <v>6826</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D436">
+        <v>39</v>
+      </c>
+      <c r="E436" s="2">
+        <v>45522</v>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>RAIMI/YEKINI STREET, ILEMBA AWORI</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>NO 1, RAIMI STREET, ARAROMI BUS STOP, SHIBIRI ROAD, AJANGBADI, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P436" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437">
+        <v>6826</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D437">
+        <v>39</v>
+      </c>
+      <c r="E437" s="2">
+        <v>45522</v>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>RAIMI/YEKINI STREET, ILEMBA AWORI</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>NO 1, RAIMI STREET, ARAROMI BUS STOP, SHIBIRI ROAD, AJANGBADI, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438">
+        <v>6832</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D438">
+        <v>36</v>
+      </c>
+      <c r="E438" s="2">
+        <v>45496</v>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>RAIMI/YEKINI STREET, ILEMBA AWORI</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>NO 9, YEKINI STREET, ARAROMI BUS STOP, SHIBIRI ROAD, AJANGBADI, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439">
+        <v>6843</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D439">
+        <v>37</v>
+      </c>
+      <c r="E439" s="2">
+        <v>45498</v>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>RAIMI/YEKINI STREET, ILEMBA AWORI</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>HOUSE NO 5, DAS STREET, ARAROMI BUS STOP, SHIBIRI ROAD, AJANGBADI, OJO, LAGOS.</t>
+        </is>
+      </c>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P439" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440">
+        <v>6850</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D440">
+        <v>43</v>
+      </c>
+      <c r="E440" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>RAIMI/YEKINI STREET, ILEMBA AWORI</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>NO 2, RAIMI STREET, ARAROMI BUS STOP, SHIBIRI ROAD, AJANGBADI, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="M440" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N440" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O440" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P440" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441">
+        <v>6850</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D441">
+        <v>37</v>
+      </c>
+      <c r="E441" s="2">
+        <v>45498</v>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>Ojo</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>RAIMI/YEKINI STREET, ILEMBA AWORI</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>NO 2, RAIMI STREET, ARAROMI BUS STOP, SHIBIRI ROAD, AJANGBADI, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N441" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O441" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P441" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442">
+        <v>6868</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D442">
+        <v>32</v>
+      </c>
+      <c r="E442" s="2">
+        <v>45452</v>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>Oshodi-Isolo</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>ASIMU ASIWAJU/IYALAJE, EJIGBO</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>9 Asili Asiwaju Street off Iyalaje Street Oshodi isolo Lagos</t>
+        </is>
+      </c>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>tab9</t>
+        </is>
+      </c>
+      <c r="N442" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>UGOCHUKWU OBINNA
+YEKINI MUSIBAU</t>
+        </is>
+      </c>
+      <c r="P442" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443">
+        <v>6910</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D443">
+        <v>30</v>
+      </c>
+      <c r="E443" s="2">
+        <v>45565</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>ITIRE ROAD/KARIMU STREET, ITIRE</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>67 Karimu street itire surulere</t>
+        </is>
+      </c>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N443" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
+        </is>
+      </c>
+      <c r="P443" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444">
+        <v>6920</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D444">
+        <v>34</v>
+      </c>
+      <c r="E444" s="2">
+        <v>45458</v>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>ITIRE ROAD/KARIMU STREET, ITIRE</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>62 karimu street itire surulere</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>62 karimu street itire surulere</t>
+        </is>
+      </c>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N444" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
+        </is>
+      </c>
+      <c r="P444" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445">
+        <v>6921</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D445">
+        <v>32</v>
+      </c>
+      <c r="E445" s="2">
+        <v>45550</v>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>ITIRE ROAD/KARIMU STREET, ITIRE</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>50 karimu street itire surulere</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>50 karimu street itire surulere</t>
+        </is>
+      </c>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N445" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
+        </is>
+      </c>
+      <c r="P445" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q445" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Pregnant_woman.xlsx
+++ b/Pregnant_woman.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q445"/>
+  <dimension ref="A1:Q468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2869,6 +2869,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>ADEALU III, DOPEMU</t>
+        </is>
+      </c>
       <c r="I34">
         <v>972</v>
       </c>
@@ -3399,6 +3404,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>FASALI STREET, ABARANJE</t>
+        </is>
+      </c>
       <c r="I42">
         <v>6814</v>
       </c>
@@ -3474,6 +3484,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>FASALI STREET, ABARANJE</t>
+        </is>
+      </c>
       <c r="I43">
         <v>6814</v>
       </c>
@@ -3544,6 +3559,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>FASALI STREET, ABARANJE</t>
+        </is>
+      </c>
       <c r="I44">
         <v>6814</v>
       </c>
@@ -3619,6 +3639,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>FASALI STREET, ABARANJE</t>
+        </is>
+      </c>
       <c r="I45">
         <v>6814</v>
       </c>
@@ -3694,6 +3719,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>FASALI STREET, ABARANJE</t>
+        </is>
+      </c>
       <c r="I46">
         <v>6814</v>
       </c>
@@ -3769,6 +3799,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>FASALI STREET, ABARANJE</t>
+        </is>
+      </c>
       <c r="I47">
         <v>6814</v>
       </c>
@@ -6062,9 +6097,17 @@
           <t>5 MBA, AJEGUNLE</t>
         </is>
       </c>
+      <c r="I77">
+        <v>1996</v>
+      </c>
       <c r="J77" t="inlineStr">
         <is>
           <t>No17 MBA lane</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>LVASA/2/1996/5</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -6129,9 +6172,17 @@
           <t>CATHOLIC MISSION ODOSHOLA, MOJODA</t>
         </is>
       </c>
+      <c r="I78">
+        <v>68</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>Baba Elepo's House Along majoda-ibonwon Road</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>LVASA/7/68/16</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6196,9 +6247,17 @@
           <t>CATHOLIC MISSION ODOSHOLA, MOJODA</t>
         </is>
       </c>
+      <c r="I79">
+        <v>68</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>O'yes House, along Odoshola-Majoda Road</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>LVASA/7/68/25</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6258,6 +6317,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>OKESALU/FAPOHUNDA, IKOTUN</t>
+        </is>
+      </c>
       <c r="I80">
         <v>6898</v>
       </c>
@@ -6403,6 +6467,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>OGUNBAMBI STREET, DOPEMU</t>
+        </is>
+      </c>
       <c r="I82">
         <v>1640</v>
       </c>
@@ -9508,6 +9577,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>OBASANJO ITAOLA, IKOTUN</t>
+        </is>
+      </c>
       <c r="I125">
         <v>6978</v>
       </c>
@@ -9583,6 +9657,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>OBASANJO ITAOLA, IKOTUN</t>
+        </is>
+      </c>
       <c r="I126">
         <v>6978</v>
       </c>
@@ -9655,6 +9734,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>OBASANJO ITAOLA, IKOTUN</t>
+        </is>
+      </c>
       <c r="I127">
         <v>6978</v>
       </c>
@@ -14486,6 +14570,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>TUNDE ASHIMOLOWO STREET, IJEGUN</t>
+        </is>
+      </c>
       <c r="I193">
         <v>7596</v>
       </c>
@@ -14561,6 +14650,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>SALAU, MORICASS</t>
+        </is>
+      </c>
       <c r="I194">
         <v>1050</v>
       </c>
@@ -16632,6 +16726,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>HADISA FALE STREET, IGANDO</t>
+        </is>
+      </c>
       <c r="I222">
         <v>6014</v>
       </c>
@@ -16702,6 +16801,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>HADISA FALE STREET, IGANDO</t>
+        </is>
+      </c>
       <c r="I223">
         <v>6014</v>
       </c>
@@ -16772,6 +16876,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>HADISA FALE STREET, IGANDO</t>
+        </is>
+      </c>
       <c r="I224">
         <v>6014</v>
       </c>
@@ -18112,6 +18221,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>MOSALASHI STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="I242">
         <v>1448</v>
       </c>
@@ -18182,6 +18296,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>MOSALASHI STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="I243">
         <v>1448</v>
       </c>
@@ -18252,6 +18371,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="I244">
         <v>1506</v>
       </c>
@@ -18319,6 +18443,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="I245">
         <v>1506</v>
       </c>
@@ -18389,6 +18518,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="I246">
         <v>1506</v>
       </c>
@@ -18459,6 +18593,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="I247">
         <v>1506</v>
       </c>
@@ -18529,6 +18668,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="I248">
         <v>1506</v>
       </c>
@@ -18599,6 +18743,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="I249">
         <v>1506</v>
       </c>
@@ -18669,6 +18818,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="I250">
         <v>1506</v>
       </c>
@@ -18739,6 +18893,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>MARKET STREET, ISALE OJA</t>
+        </is>
+      </c>
       <c r="I251">
         <v>1506</v>
       </c>
@@ -18809,6 +18968,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>ASAFA STREET, IKOTUN</t>
+        </is>
+      </c>
       <c r="I252">
         <v>6938</v>
       </c>
@@ -18881,6 +19045,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>GBADAMOSI/GAFARU STREET, IKOTUN</t>
+        </is>
+      </c>
       <c r="I253">
         <v>6940</v>
       </c>
@@ -22931,6 +23100,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>ADELIYI / SEGILOLA, ISALE OJA</t>
+        </is>
+      </c>
       <c r="J309" t="inlineStr">
         <is>
           <t>1 segilola street</t>
@@ -24967,6 +25141,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>AKINDIYA / OGBA ROAD, SANGO</t>
+        </is>
+      </c>
       <c r="J337" t="inlineStr">
         <is>
           <t>16 Akindiya street</t>
@@ -28220,6 +28399,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>6, ALAFIA STREET, SHASHA</t>
+        </is>
+      </c>
       <c r="I383">
         <v>4028</v>
       </c>
@@ -28574,6 +28758,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>SHITTU III, DOPEMU</t>
+        </is>
+      </c>
       <c r="J388" t="inlineStr">
         <is>
           <t>76 Shitta street</t>
@@ -28636,6 +28825,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>SHITTU III, DOPEMU</t>
+        </is>
+      </c>
       <c r="J389" t="inlineStr">
         <is>
           <t>76 Shitta street</t>
@@ -28698,6 +28892,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>SHITTU III, DOPEMU</t>
+        </is>
+      </c>
       <c r="J390" t="inlineStr">
         <is>
           <t>76 Shitta street</t>
@@ -28760,6 +28959,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>SHITTU III, DOPEMU</t>
+        </is>
+      </c>
       <c r="J391" t="inlineStr">
         <is>
           <t>76 Shitta street</t>
@@ -28822,6 +29026,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>SHITTU III, DOPEMU</t>
+        </is>
+      </c>
       <c r="J392" t="inlineStr">
         <is>
           <t>84 Shitta street</t>
@@ -28884,6 +29093,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>SHITTU III, DOPEMU</t>
+        </is>
+      </c>
       <c r="J393" t="inlineStr">
         <is>
           <t>84 Shitta street</t>
@@ -29498,6 +29712,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>IFELODUN/IFEDORE STREET, ORISUNMBARE</t>
+        </is>
+      </c>
       <c r="I402">
         <v>2762</v>
       </c>
@@ -29568,6 +29787,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>IFELODUN/IFEDORE STREET, ORISUNMBARE</t>
+        </is>
+      </c>
       <c r="I403">
         <v>2762</v>
       </c>
@@ -32523,6 +32747,1635 @@
         </is>
       </c>
       <c r="Q445" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446">
+        <v>6974</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D446">
+        <v>22</v>
+      </c>
+      <c r="E446" s="2">
+        <v>45373</v>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>SANGO / GASKIYA ROAD / ASIMI LANE, ABETE</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>3 ashimi lane off gaskiya college</t>
+        </is>
+      </c>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>tab19</t>
+        </is>
+      </c>
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447">
+        <v>7064</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>07029242611</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D447">
+        <v>31</v>
+      </c>
+      <c r="E447" s="2">
+        <v>45407</v>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>OLOPEMEJI, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I447">
+        <v>466</v>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo 12</t>
+        </is>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>LVASA/12/466/27</t>
+        </is>
+      </c>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N447" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448">
+        <v>7070</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>09163699003</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D448">
+        <v>23</v>
+      </c>
+      <c r="E448" s="2">
+        <v>45407</v>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>OLOPEMEJI, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I448">
+        <v>466</v>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo 4</t>
+        </is>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>LVASA/12/466/32</t>
+        </is>
+      </c>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P448" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449">
+        <v>7088</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>07049309368</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D449">
+        <v>32</v>
+      </c>
+      <c r="E449" s="2">
+        <v>45526</v>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>OLOPEMEJI, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I449">
+        <v>466</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo  off Ogundela street off olisa street 42</t>
+        </is>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>LVASA/12/466/49</t>
+        </is>
+      </c>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450">
+        <v>7097</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>09128454364</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D450">
+        <v>33</v>
+      </c>
+      <c r="E450" s="2">
+        <v>45381</v>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>OLOPEMEJI, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I450">
+        <v>466</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo  off Ogundela street olisa street off Ogunbela street 18</t>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>LVASA/12/466/57</t>
+        </is>
+      </c>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451">
+        <v>7101</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>09162891923</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D451">
+        <v>28</v>
+      </c>
+      <c r="E451" s="2">
+        <v>45526</v>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>OLOPEMEJI, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I451">
+        <v>466</v>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo  off Ogundela street olisa street off Ogunbela street 8</t>
+        </is>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>LVASA/12/466/61</t>
+        </is>
+      </c>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452">
+        <v>7101</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>08148995395</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D452">
+        <v>33</v>
+      </c>
+      <c r="E452" s="2">
+        <v>45528</v>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>OLOPEMEJI, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I452">
+        <v>466</v>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>Odogunyan ikorodu noff Olopemeji street off Michael Adesanya street off olasaji Taiwo  off Ogundela street olisa street off Ogunbela street 8</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>LVASA/12/466/61</t>
+        </is>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453">
+        <v>7119</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>6377</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D453">
+        <v>25</v>
+      </c>
+      <c r="E453" s="2">
+        <v>45427</v>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>SHOBOWALE STREET IV, KEKE</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>5 shobowale street</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P453" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454">
+        <v>7125</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>6383</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D454">
+        <v>27</v>
+      </c>
+      <c r="E454" s="2">
+        <v>45462</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>SHOBOWALE STREET IV, KEKE</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>17 shobowale street</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P454" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455">
+        <v>7126</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>6384</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D455">
+        <v>28</v>
+      </c>
+      <c r="E455" s="2">
+        <v>45432</v>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>SHOBOWALE STREET IV, KEKE</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>19 shobowale street</t>
+        </is>
+      </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P455" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q455" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456">
+        <v>7134</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>6392</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D456">
+        <v>24</v>
+      </c>
+      <c r="E456" s="2">
+        <v>45526</v>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>SHOBOWALE STREET IV, KEKE</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>37 shobowale street</t>
+        </is>
+      </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P456" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457">
+        <v>7148</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D457">
+        <v>28</v>
+      </c>
+      <c r="E457" s="2">
+        <v>45495</v>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>IJESHA  ROAD 2, ITIRE</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>92 Ijesha Road Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P457" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q457" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458">
+        <v>7171</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D458">
+        <v>32</v>
+      </c>
+      <c r="E458" s="2">
+        <v>45611</v>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>FALOHUN STREET 1, ORILE IGANMU</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>24 falohun street orile surulere</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>3atpry grey building</t>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
+        </is>
+      </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459">
+        <v>7175</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D459">
+        <v>23</v>
+      </c>
+      <c r="E459" s="2">
+        <v>45427</v>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>FALOHUN STREET 1, ORILE IGANMU</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>30 falohun street orile surulere</t>
+        </is>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
+        </is>
+      </c>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q459" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460">
+        <v>7179</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D460">
+        <v>30</v>
+      </c>
+      <c r="E460" s="2">
+        <v>45611</v>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>FALOHUN STREET 1, ORILE IGANMU</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>38 falohun street orile surulere</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>38 falohun street orile surulere</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
+        </is>
+      </c>
+      <c r="P460" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q460" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461">
+        <v>7186</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D461">
+        <v>28</v>
+      </c>
+      <c r="E461" s="2">
+        <v>45550</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Ibeju-Lekki</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>ARAROMI RD, ELEKO</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>7, Araromi street Eleko</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>tab2</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
+        </is>
+      </c>
+      <c r="P461" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q461" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462">
+        <v>7260</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D462">
+        <v>22</v>
+      </c>
+      <c r="E462" s="2">
+        <v>45480</v>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>SINGBOMEH COMPOUND, MOWO</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>Oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463">
+        <v>7293</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D463">
+        <v>31</v>
+      </c>
+      <c r="E463" s="2">
+        <v>45448</v>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>IJEGUN EGBA ZONE 2, IJEGUN</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>Celestial street off zone 2 Ijegun Egba</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>Black big geepee tank Infront of building</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464">
+        <v>7293</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D464">
+        <v>31</v>
+      </c>
+      <c r="E464" s="2">
+        <v>45448</v>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>IJEGUN EGBA ZONE 2, IJEGUN</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>Celestial street off zone 2 Ijegun Egba</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>Black big geepee tank Infront of building</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465">
+        <v>7306</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D465">
+        <v>27</v>
+      </c>
+      <c r="E465" s="2">
+        <v>45583</v>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>ASHIMI / GASKIYA ROAD, ABETE</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>10 Ashimi lane off gaskiya road</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>Main building</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>tab19</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q465" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466">
+        <v>7306</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D466">
+        <v>25</v>
+      </c>
+      <c r="E466" s="2">
+        <v>45551</v>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>ASHIMI / GASKIYA ROAD, ABETE</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>10 Ashimi lane off gaskiya road</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>Main building</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>tab19</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467">
+        <v>7331</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E467" s="2">
+        <v>45526</v>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>ADENIYI STEET, ALAKUKO</t>
+        </is>
+      </c>
+      <c r="I467">
+        <v>826</v>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>21 Adeniyi Street</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>LVASA/10/826/12</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>tab54</t>
+        </is>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468">
+        <v>7341</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E468" s="2">
+        <v>45582</v>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>ADENIYI STEET, ALAKUKO</t>
+        </is>
+      </c>
+      <c r="I468">
+        <v>826</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>14 Adegolu Street</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>LVASA/10/826/22</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>tab54</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q468" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Pregnant_woman.xlsx
+++ b/Pregnant_woman.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q468"/>
+  <dimension ref="A1:Q497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34381,6 +34381,2063 @@
         </is>
       </c>
     </row>
+    <row r="469">
+      <c r="A469">
+        <v>7443</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>08109616696</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D469">
+        <v>35</v>
+      </c>
+      <c r="E469" s="2">
+        <v>45498</v>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I469">
+        <v>294</v>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>After PZ company road enter the first street by your right side  Tigebebo street odogunyan the name have be changed to new agolo segun street No 41</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/13</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q469" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470">
+        <v>7456</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>08152421229</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D470">
+        <v>26</v>
+      </c>
+      <c r="E470" s="2">
+        <v>45435</v>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I470">
+        <v>294</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>After PZ company road enter the first street by your right side  Tigebebo street odogunyan the name have be changed to new agolo segun street Off chruch street no 8a</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/25</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q470" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471">
+        <v>7457</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>08022292385</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D471">
+        <v>38</v>
+      </c>
+      <c r="E471" s="2">
+        <v>45533</v>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I471">
+        <v>294</v>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>After PZ company road enter the first street by your right side  Tigebebo street odogunyan the name have be changed to new agolo segun street Off chruch street. Off close jaiyasemi street</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/26</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P471" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q471" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472">
+        <v>7476</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>09125607444</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D472">
+        <v>32</v>
+      </c>
+      <c r="E472" s="2">
+        <v>45499</v>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I472">
+        <v>294</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street no 14</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/43</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P472" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473">
+        <v>7478</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>08138441429</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D473">
+        <v>40</v>
+      </c>
+      <c r="E473" s="2">
+        <v>45463</v>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I473">
+        <v>294</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street no 22</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/45</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P473" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q473" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474">
+        <v>7482</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>08064504561</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D474">
+        <v>30</v>
+      </c>
+      <c r="E474" s="2">
+        <v>45491</v>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I474">
+        <v>294</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo street segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street no 5</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/49</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P474" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q474" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475">
+        <v>7484</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>08142386399</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D475">
+        <v>40</v>
+      </c>
+      <c r="E475" s="2">
+        <v>45443</v>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I475">
+        <v>294</v>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo street segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street no 7</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/50</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q475" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476">
+        <v>7499</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>07058423096</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D476">
+        <v>32</v>
+      </c>
+      <c r="E476" s="2">
+        <v>45463</v>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>TIGBEBO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="I476">
+        <v>294</v>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>right side  Tigebebo street odogunyan the name have be changed to new agolo street segun street Off chruch street. Off close jaiyasemi street ibiyemi bale street off okunyi street off tope crescent no 26a</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>LVASA/12/294/64</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P476" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q476" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477">
+        <v>7515</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D477">
+        <v>28</v>
+      </c>
+      <c r="E477" s="2">
+        <v>45474</v>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>MAKALEWO ST/POBUNA ROAD, POKA</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>15, Irepodun Street, Makalewo Poka Epe</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q477" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478">
+        <v>7531</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D478">
+        <v>29</v>
+      </c>
+      <c r="E478" s="2">
+        <v>45425</v>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>ARAROMI STREET ODORAGUNSI, MOJODA</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>9, Odoyangusi ilara Epe</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P478" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q478" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479">
+        <v>7531</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D479">
+        <v>22</v>
+      </c>
+      <c r="E479" s="2">
+        <v>45418</v>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>ARAROMI STREET ODORAGUNSI, MOJODA</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>9, Odoyangusi ilara Epe</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q479" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480">
+        <v>7534</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D480">
+        <v>32</v>
+      </c>
+      <c r="E480" s="2">
+        <v>45397</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>ARAROMI STREET ODORAGUNSI, MOJODA</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>7, Araromi Street odoyangusi ilara Epe</t>
+        </is>
+      </c>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="P480" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q480" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481">
+        <v>7586</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D481">
+        <v>31</v>
+      </c>
+      <c r="E481" s="2">
+        <v>45385</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>SAKA ADISA STREET, ABULE ADO</t>
+        </is>
+      </c>
+      <c r="I481">
+        <v>988</v>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>14 Obarale street baale house</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>LVASA/4/988/4</t>
+        </is>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P481" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q481" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482">
+        <v>7589</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D482">
+        <v>35</v>
+      </c>
+      <c r="E482" s="2">
+        <v>45581</v>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>SAKA ADISA STREET, ABULE ADO</t>
+        </is>
+      </c>
+      <c r="I482">
+        <v>988</v>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>10 Moses Ike crescent tedi</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>LVASA/4/988/1</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q482" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483">
+        <v>7594</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D483">
+        <v>32</v>
+      </c>
+      <c r="E483" s="2">
+        <v>45371</v>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>SAKA ADISA STREET, ABULE ADO</t>
+        </is>
+      </c>
+      <c r="I483">
+        <v>988</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>7 Abuje Compound Tedi</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>LVASA/4/988/10</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q483" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484">
+        <v>7641</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D484">
+        <v>34</v>
+      </c>
+      <c r="E484" s="2">
+        <v>45428</v>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>JOLAOSHO /OLAJIDE/BAKARE, IDI  ARABA</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>2 Olajide street off Taiwo Morgan street Idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q484" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485">
+        <v>7642</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D485">
+        <v>28</v>
+      </c>
+      <c r="E485" s="2">
+        <v>45404</v>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>JOLAOSHO /OLAJIDE/BAKARE, IDI  ARABA</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>4 Olajide street off Taiwo street morgan, Idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q485" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486">
+        <v>7644</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D486">
+        <v>34</v>
+      </c>
+      <c r="E486" s="2">
+        <v>45422</v>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>JOLAOSHO /OLAJIDE/BAKARE, IDI  ARABA</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>8 Olajide street off Taiwo street Morgan Idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q486" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487">
+        <v>7650</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D487">
+        <v>26</v>
+      </c>
+      <c r="E487" s="2">
+        <v>45458</v>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>Mushin</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>JOLAOSHO /OLAJIDE/BAKARE, IDI  ARABA</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>4 Ilora street off Bakare Morgan Idi Araba Mushin Lagos</t>
+        </is>
+      </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
+        </is>
+      </c>
+      <c r="P487" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q487" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488">
+        <v>7809</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>7142</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D488">
+        <v>17</v>
+      </c>
+      <c r="E488" s="2">
+        <v>45483</v>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>2, BELLO AJARE STREET, DOPEMU</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>4 bello Ajare street</t>
+        </is>
+      </c>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P488" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q488" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489">
+        <v>7809</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>7142</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D489">
+        <v>24</v>
+      </c>
+      <c r="E489" s="2">
+        <v>45460</v>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>2, BELLO AJARE STREET, DOPEMU</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>4 bello Ajare street</t>
+        </is>
+      </c>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P489" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q489" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490">
+        <v>7812</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>7145</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D490">
+        <v>40</v>
+      </c>
+      <c r="E490" s="2">
+        <v>45614</v>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>2, BELLO AJARE STREET, DOPEMU</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>10 Bello Ajare street</t>
+        </is>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q490" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491">
+        <v>7821</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>7154</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D491">
+        <v>33</v>
+      </c>
+      <c r="E491" s="2">
+        <v>45467</v>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>2, BELLO AJARE STREET, DOPEMU</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>17 Bello Ajare street</t>
+        </is>
+      </c>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q491" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492">
+        <v>7828</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D492">
+        <v>28</v>
+      </c>
+      <c r="E492" s="2">
+        <v>45420</v>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>2, BELLO AJARE STREET, DOPEMU</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>3 Bello Ajare street</t>
+        </is>
+      </c>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P492" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q492" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493">
+        <v>7832</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>7166</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D493">
+        <v>27</v>
+      </c>
+      <c r="E493" s="2">
+        <v>45453</v>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>2, BELLO AJARE STREET, DOPEMU</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>7 olusesi street</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q493" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494">
+        <v>7853</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D494">
+        <v>29</v>
+      </c>
+      <c r="E494" s="2">
+        <v>45460</v>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>1B OLORUNGBEBEE STREET, AMUKOKO</t>
+        </is>
+      </c>
+      <c r="I494">
+        <v>836</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>No 13 olorungbebe street</t>
+        </is>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>LVASA/2/836/18</t>
+        </is>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q494" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495">
+        <v>7853</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D495">
+        <v>29</v>
+      </c>
+      <c r="E495" s="2">
+        <v>45460</v>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>1B OLORUNGBEBEE STREET, AMUKOKO</t>
+        </is>
+      </c>
+      <c r="I495">
+        <v>836</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>No 13 olorungbebe street</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>LVASA/2/836/18</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q495" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496">
+        <v>7853</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E496" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>1B OLORUNGBEBEE STREET, AMUKOKO</t>
+        </is>
+      </c>
+      <c r="I496">
+        <v>836</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>No 13 olorungbebe street</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>LVASA/2/836/18</t>
+        </is>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P496" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q496" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497">
+        <v>7853</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E497" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>1B OLORUNGBEBEE STREET, AMUKOKO</t>
+        </is>
+      </c>
+      <c r="I497">
+        <v>836</v>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>No 13 olorungbebe street</t>
+        </is>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>LVASA/2/836/18</t>
+        </is>
+      </c>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P497" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q497" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pregnant_woman.xlsx
+++ b/Pregnant_woman.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q497"/>
+  <dimension ref="A1:Q516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36438,6 +36438,1310 @@
         </is>
       </c>
     </row>
+    <row r="498">
+      <c r="A498">
+        <v>7880</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D498">
+        <v>24</v>
+      </c>
+      <c r="E498" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>1B OLORUNGBEBEE STREET, AMUKOKO</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>No 34 olorungbebe street</t>
+        </is>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P498" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q498" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499">
+        <v>7880</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D499">
+        <v>24</v>
+      </c>
+      <c r="E499" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>1B OLORUNGBEBEE STREET, AMUKOKO</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>No 34 olorungbebe street</t>
+        </is>
+      </c>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P499" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q499" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500">
+        <v>7891</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D500">
+        <v>35</v>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>1B OLORUNGBEBEE STREET, AMUKOKO</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>No42 olorungbebe street</t>
+        </is>
+      </c>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="N500" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P500" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q500" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501">
+        <v>7891</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D501">
+        <v>35</v>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>1B OLORUNGBEBEE STREET, AMUKOKO</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>No42 olorungbebe street</t>
+        </is>
+      </c>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="N501" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P501" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q501" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502">
+        <v>7891</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D502">
+        <v>21</v>
+      </c>
+      <c r="E502" s="2">
+        <v>45426</v>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>1B OLORUNGBEBEE STREET, AMUKOKO</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>No42 olorungbebe street</t>
+        </is>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q502" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503">
+        <v>7891</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D503">
+        <v>21</v>
+      </c>
+      <c r="E503" s="2">
+        <v>45426</v>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>1B OLORUNGBEBEE STREET, AMUKOKO</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>No42 olorungbebe street</t>
+        </is>
+      </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q503" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504">
+        <v>7894</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D504">
+        <v>30</v>
+      </c>
+      <c r="E504" s="2">
+        <v>45426</v>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>76, MURI OJORA, AMUKOKO</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>No 58 Muri ojora</t>
+        </is>
+      </c>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q504" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505">
+        <v>7895</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D505">
+        <v>47</v>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>76, MURI OJORA, AMUKOKO</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>No 58 Muri ojora</t>
+        </is>
+      </c>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>tab13</t>
+        </is>
+      </c>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P505" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q505" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506">
+        <v>7914</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D506">
+        <v>28</v>
+      </c>
+      <c r="E506" s="2">
+        <v>45382</v>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="I506">
+        <v>1532</v>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>Building opposite a mask beside the mosque</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/2</t>
+        </is>
+      </c>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="N506" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="P506" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q506" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507">
+        <v>7938</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D507">
+        <v>26</v>
+      </c>
+      <c r="E507" s="2">
+        <v>45402</v>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="I507">
+        <v>1532</v>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>Building directly opposite THE CHILD OF FORTUNE ACADEMY</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/7</t>
+        </is>
+      </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="P507" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q507" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508">
+        <v>7945</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>081148947412</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D508">
+        <v>27</v>
+      </c>
+      <c r="E508" s="2">
+        <v>45456</v>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>OKO OWO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street no 17</t>
+        </is>
+      </c>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N508" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P508" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q508" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509">
+        <v>7962</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>08168778320</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D509">
+        <v>23</v>
+      </c>
+      <c r="E509" s="2">
+        <v>45526</v>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>OKO OWO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street no 32a</t>
+        </is>
+      </c>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P509" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q509" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510">
+        <v>7977</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>09152848177</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D510">
+        <v>22</v>
+      </c>
+      <c r="E510" s="2">
+        <v>45582</v>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>OKO OWO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street off Atuluse 35street community road</t>
+        </is>
+      </c>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N510" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P510" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q510" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511">
+        <v>7977</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>08161206666</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D511">
+        <v>25</v>
+      </c>
+      <c r="E511" s="2">
+        <v>45492</v>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>OKO OWO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street off Atuluse 35street community road</t>
+        </is>
+      </c>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N511" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P511" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q511" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512">
+        <v>7986</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>09054932389</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D512">
+        <v>35</v>
+      </c>
+      <c r="E512" s="2">
+        <v>45412</v>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>OKO OWO STREET, ODOGUNYAN</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>Oke- owo street odogunyan Ikorodu bustop take bike to oke- owo street off Atuluse 19street community road</t>
+        </is>
+      </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P512" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q512" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513">
+        <v>8031</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D513">
+        <v>35</v>
+      </c>
+      <c r="E513" s="2">
+        <v>45462</v>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>LAYOFASAN STREET, IJAIYE OJOKORO</t>
+        </is>
+      </c>
+      <c r="I513">
+        <v>522</v>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>6 Odusanya Street</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>LVASA/10/522/31</t>
+        </is>
+      </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>tab54</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="P513" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q513" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514">
+        <v>8125</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D514">
+        <v>23</v>
+      </c>
+      <c r="E514" s="2">
+        <v>45624</v>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>ARO / FARA STREET, IJORA OLOYE</t>
+        </is>
+      </c>
+      <c r="I514">
+        <v>1134</v>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>3 ,Aro lane off karimu street</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>LVASA/5/1134/25</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>tab19</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q514" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515">
+        <v>8242</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D515">
+        <v>26</v>
+      </c>
+      <c r="E515" s="2">
+        <v>45519</v>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>7, ALHAJI, ALHAJA STREET, ABESAN</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>6 IFELODUN STREET ABESAN</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>A BUNGALOW</t>
+        </is>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q515" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516">
+        <v>8358</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D516">
+        <v>30</v>
+      </c>
+      <c r="E516" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>BOLAJI STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="I516">
+        <v>180</v>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>No 2, Ifeanyi Str off community road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>LVASA/6/180/10</t>
+        </is>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q516" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pregnant_woman.xlsx
+++ b/Pregnant_woman.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q692"/>
+  <dimension ref="A1:Q780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30373,11 +30373,11 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>MALLAM GANA/ ISHAGA ROAD, IDI -ARABA</t>
+          <t>ISHAGA RD/MALLAM GANA, IDI - ARABA</t>
         </is>
       </c>
       <c r="I411">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J411" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>LVASA/16/958/17</t>
+          <t>LVASA/16/956/17</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
@@ -30448,11 +30448,11 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>MALLAM GANA/ ISHAGA ROAD, IDI -ARABA</t>
+          <t>ISHAGA RD/MALLAM GANA, IDI - ARABA</t>
         </is>
       </c>
       <c r="I412">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J412" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>LVASA/16/958/17</t>
+          <t>LVASA/16/956/17</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
@@ -30523,11 +30523,11 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>MALLAM GANA/ ISHAGA ROAD, IDI -ARABA</t>
+          <t>ISHAGA RD/MALLAM GANA, IDI - ARABA</t>
         </is>
       </c>
       <c r="I413">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J413" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>LVASA/16/958/17</t>
+          <t>LVASA/16/956/17</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
@@ -30598,11 +30598,11 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>MALLAM GANA/ ISHAGA ROAD, IDI -ARABA</t>
+          <t>ISHAGA RD/MALLAM GANA, IDI - ARABA</t>
         </is>
       </c>
       <c r="I414">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J414" t="inlineStr">
         <is>
@@ -30611,7 +30611,7 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>LVASA/16/958/17</t>
+          <t>LVASA/16/956/17</t>
         </is>
       </c>
       <c r="M414" t="inlineStr">
@@ -50082,6 +50082,6174 @@
         </is>
       </c>
       <c r="Q692" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693">
+        <v>9065</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D693">
+        <v>25</v>
+      </c>
+      <c r="E693" s="2">
+        <v>45393</v>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>AKINTABI STREET/AJAO BAKERY, IJEGUN</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>1 anani street ikotun ijegun</t>
+        </is>
+      </c>
+      <c r="M693" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N693" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="O693" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P693" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q693" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694">
+        <v>9066</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D694">
+        <v>32</v>
+      </c>
+      <c r="E694" s="2">
+        <v>45397</v>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>AKINTABI STREET/AJAO BAKERY, IJEGUN</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>2 Anani street ikotun ijegun</t>
+        </is>
+      </c>
+      <c r="M694" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N694" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="O694" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P694" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q694" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695">
+        <v>9071</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D695">
+        <v>28</v>
+      </c>
+      <c r="E695" s="2">
+        <v>45489</v>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>AKINTABI STREET/AJAO BAKERY, IJEGUN</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>10 Anani street ikotun ijegun road</t>
+        </is>
+      </c>
+      <c r="M695" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N695" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="O695" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P695" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q695" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696">
+        <v>9090</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D696">
+        <v>26</v>
+      </c>
+      <c r="E696" s="2">
+        <v>45463</v>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>24, FREEMAN STREET, EBUTE METTA</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>109Freeman Street ebute metta Lagos</t>
+        </is>
+      </c>
+      <c r="M696" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N696" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="O696" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P696" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q696" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697">
+        <v>9090</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D697">
+        <v>26</v>
+      </c>
+      <c r="E697" s="2">
+        <v>45463</v>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>24, FREEMAN STREET, EBUTE METTA</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>109Freeman Street ebute metta Lagos</t>
+        </is>
+      </c>
+      <c r="M697" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N697" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="O697" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P697" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q697" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698">
+        <v>9092</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D698">
+        <v>43</v>
+      </c>
+      <c r="E698" s="2">
+        <v>45582</v>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>24, FREEMAN STREET, EBUTE METTA</t>
+        </is>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>103 Freeman Street ebute metta Lagos</t>
+        </is>
+      </c>
+      <c r="M698" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N698" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="O698" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P698" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q698" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699">
+        <v>9092</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D699">
+        <v>43</v>
+      </c>
+      <c r="E699" s="2">
+        <v>45582</v>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>24, FREEMAN STREET, EBUTE METTA</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>103 Freeman Street ebute metta Lagos</t>
+        </is>
+      </c>
+      <c r="M699" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N699" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="O699" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P699" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q699" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700">
+        <v>9103</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D700">
+        <v>34</v>
+      </c>
+      <c r="E700" s="2">
+        <v>45524</v>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>AIYETORO STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>2 Aiyetoro Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="M700" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N700" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="O700" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P700" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q700" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701">
+        <v>9103</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D701">
+        <v>34</v>
+      </c>
+      <c r="E701" s="2">
+        <v>45524</v>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>AIYETORO STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>2 Aiyetoro Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="M701" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N701" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="O701" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P701" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q701" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702">
+        <v>9103</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D702">
+        <v>27</v>
+      </c>
+      <c r="E702" s="2">
+        <v>45524</v>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>AIYETORO STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>2 Aiyetoro Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="M702" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N702" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="O702" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P702" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q702" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703">
+        <v>9103</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D703">
+        <v>27</v>
+      </c>
+      <c r="E703" s="2">
+        <v>45524</v>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>AIYETORO STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>2 Aiyetoro Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="M703" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N703" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="O703" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P703" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q703" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704">
+        <v>9112</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D704">
+        <v>25</v>
+      </c>
+      <c r="E704" s="2">
+        <v>45589</v>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>AIYETORO STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>Behind 2 Aiyetoro Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="M704" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N704" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O704" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P704" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q704" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705">
+        <v>9112</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D705">
+        <v>25</v>
+      </c>
+      <c r="E705" s="2">
+        <v>45589</v>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>AIYETORO STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>Behind 2 Aiyetoro Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="M705" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N705" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O705" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P705" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q705" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706">
+        <v>9114</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D706">
+        <v>24</v>
+      </c>
+      <c r="E706" s="2">
+        <v>45527</v>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>AIYETORO STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>Behind 2 Aiyetoro Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="M706" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N706" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O706" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P706" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q706" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707">
+        <v>9114</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D707">
+        <v>24</v>
+      </c>
+      <c r="E707" s="2">
+        <v>45527</v>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>AIYETORO STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>Behind 2 Aiyetoro Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="M707" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N707" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O707" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P707" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q707" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708">
+        <v>9115</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D708">
+        <v>20</v>
+      </c>
+      <c r="E708" s="2">
+        <v>45400</v>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>AIYETORO STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>Behind 2 Aiyetoro Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="M708" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N708" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O708" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P708" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q708" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709">
+        <v>9115</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D709">
+        <v>20</v>
+      </c>
+      <c r="E709" s="2">
+        <v>45400</v>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>AIYETORO STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>Behind 2 Aiyetoro Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="M709" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="N709" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O709" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P709" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q709" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710">
+        <v>9128</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>09157454182</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D710">
+        <v>28</v>
+      </c>
+      <c r="E710" s="2">
+        <v>45456</v>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 22 Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="M710" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N710" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O710" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P710" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q710" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711">
+        <v>9128</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>09157454182</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D711">
+        <v>28</v>
+      </c>
+      <c r="E711" s="2">
+        <v>45456</v>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 22 Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="M711" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N711" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O711" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P711" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q711" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712">
+        <v>9138</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>08063109937</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D712">
+        <v>24</v>
+      </c>
+      <c r="E712" s="2">
+        <v>45519</v>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 3bOgolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="M712" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N712" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O712" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P712" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q712" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713">
+        <v>9138</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>08063109937</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D713">
+        <v>24</v>
+      </c>
+      <c r="E713" s="2">
+        <v>45519</v>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 3bOgolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="M713" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N713" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O713" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P713" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q713" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714">
+        <v>9161</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>08026763509</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D714">
+        <v>21</v>
+      </c>
+      <c r="E714" s="2">
+        <v>45553</v>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 13b Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="M714" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N714" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O714" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P714" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q714" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715">
+        <v>9161</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>08026763509</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D715">
+        <v>21</v>
+      </c>
+      <c r="E715" s="2">
+        <v>45553</v>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 13b Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="M715" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N715" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O715" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P715" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q715" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716">
+        <v>9161</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>09163927059</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D716">
+        <v>25</v>
+      </c>
+      <c r="E716" s="2">
+        <v>45554</v>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="J716" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 13b Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="M716" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N716" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O716" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P716" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q716" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717">
+        <v>9161</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>09163927059</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D717">
+        <v>25</v>
+      </c>
+      <c r="E717" s="2">
+        <v>45554</v>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>Ikorodu</t>
+        </is>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>Ogolonto bustop at Ewenle street no 13b Ogolonto ikorodu</t>
+        </is>
+      </c>
+      <c r="M717" t="inlineStr">
+        <is>
+          <t>tab18</t>
+        </is>
+      </c>
+      <c r="N717" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O717" t="inlineStr">
+        <is>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
+        </is>
+      </c>
+      <c r="P717" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q717" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718">
+        <v>9190</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D718">
+        <v>35</v>
+      </c>
+      <c r="E718" s="2">
+        <v>45488</v>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>ALAGBEGBA STREET, ISALE OJA</t>
+        </is>
+      </c>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>23 Alagbigba street Isale Oja, Agege Lagos</t>
+        </is>
+      </c>
+      <c r="M718" t="inlineStr">
+        <is>
+          <t>tab12</t>
+        </is>
+      </c>
+      <c r="N718" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="O718" t="inlineStr">
+        <is>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
+        </is>
+      </c>
+      <c r="P718" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q718" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719">
+        <v>9251</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D719">
+        <v>36</v>
+      </c>
+      <c r="E719" s="2">
+        <v>45455</v>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>AKANI DADA STREET, IGANDO</t>
+        </is>
+      </c>
+      <c r="I719">
+        <v>5900</v>
+      </c>
+      <c r="J719" t="inlineStr">
+        <is>
+          <t>1 Akani dada street</t>
+        </is>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>LVASA/3/5900/18</t>
+        </is>
+      </c>
+      <c r="M719" t="inlineStr">
+        <is>
+          <t>tab17</t>
+        </is>
+      </c>
+      <c r="N719" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O719" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P719" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q719" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720">
+        <v>9256</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D720">
+        <v>38</v>
+      </c>
+      <c r="E720" s="2">
+        <v>45483</v>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>AKANI DADA STREET, IGANDO</t>
+        </is>
+      </c>
+      <c r="I720">
+        <v>5900</v>
+      </c>
+      <c r="J720" t="inlineStr">
+        <is>
+          <t>5 Akani dada street</t>
+        </is>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>LVASA/3/5900/22</t>
+        </is>
+      </c>
+      <c r="M720" t="inlineStr">
+        <is>
+          <t>tab17</t>
+        </is>
+      </c>
+      <c r="N720" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O720" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P720" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q720" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721">
+        <v>9268</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D721">
+        <v>34</v>
+      </c>
+      <c r="E721" s="2">
+        <v>45511</v>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>AKANI DADA STREET, IGANDO</t>
+        </is>
+      </c>
+      <c r="I721">
+        <v>5900</v>
+      </c>
+      <c r="J721" t="inlineStr">
+        <is>
+          <t>1 Komolafe street</t>
+        </is>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>LVASA/3/5900/33</t>
+        </is>
+      </c>
+      <c r="M721" t="inlineStr">
+        <is>
+          <t>tab17</t>
+        </is>
+      </c>
+      <c r="N721" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O721" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P721" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q721" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722">
+        <v>9304</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D722">
+        <v>24</v>
+      </c>
+      <c r="E722" s="2">
+        <v>45428</v>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>OLUSOLA ARIYO STREET, LANGBASA</t>
+        </is>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>Building facing the bush before redeem church compound</t>
+        </is>
+      </c>
+      <c r="M722" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="N722" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O722" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="P722" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q722" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723">
+        <v>9304</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D723">
+        <v>24</v>
+      </c>
+      <c r="E723" s="2">
+        <v>45428</v>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>OLUSOLA ARIYO STREET, LANGBASA</t>
+        </is>
+      </c>
+      <c r="J723" t="inlineStr">
+        <is>
+          <t>Building facing the bush before redeem church compound</t>
+        </is>
+      </c>
+      <c r="M723" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="N723" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O723" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="P723" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q723" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724">
+        <v>9346</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>8713</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D724">
+        <v>32</v>
+      </c>
+      <c r="E724" s="2">
+        <v>45489</v>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>22, OLUWAGBEBE STREET, SHASHA</t>
+        </is>
+      </c>
+      <c r="I724">
+        <v>4050</v>
+      </c>
+      <c r="J724" t="inlineStr">
+        <is>
+          <t>33 oluwagbebe street</t>
+        </is>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>LVASA/3/4050/20</t>
+        </is>
+      </c>
+      <c r="M724" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N724" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O724" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P724" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q724" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725">
+        <v>9377</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D725">
+        <v>34</v>
+      </c>
+      <c r="E725" s="2">
+        <v>45495</v>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>ASALU STREET, TOLU</t>
+        </is>
+      </c>
+      <c r="J725" t="inlineStr">
+        <is>
+          <t>NO 12 ASALU STREET, OFF TOLU ROAD, AJEGUNLE, AJEROMI IFELODUN, LAGOS STATE</t>
+        </is>
+      </c>
+      <c r="M725" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N725" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O725" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P725" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q725" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726">
+        <v>9390</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D726">
+        <v>30</v>
+      </c>
+      <c r="E726" s="2">
+        <v>45574</v>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>ILASHE BEACH, IBESHE</t>
+        </is>
+      </c>
+      <c r="I726">
+        <v>2058</v>
+      </c>
+      <c r="J726" t="inlineStr">
+        <is>
+          <t>Abisogun compound</t>
+        </is>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>LVASA/4/2058/7</t>
+        </is>
+      </c>
+      <c r="M726" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N726" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O726" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P726" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q726" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727">
+        <v>9390</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D727">
+        <v>30</v>
+      </c>
+      <c r="E727" s="2">
+        <v>45574</v>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>ILASHE BEACH, IBESHE</t>
+        </is>
+      </c>
+      <c r="I727">
+        <v>2058</v>
+      </c>
+      <c r="J727" t="inlineStr">
+        <is>
+          <t>Abisogun compound</t>
+        </is>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>LVASA/4/2058/7</t>
+        </is>
+      </c>
+      <c r="M727" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N727" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O727" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P727" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q727" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728">
+        <v>9390</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D728">
+        <v>28</v>
+      </c>
+      <c r="E728" s="2">
+        <v>45385</v>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>ILASHE BEACH, IBESHE</t>
+        </is>
+      </c>
+      <c r="I728">
+        <v>2058</v>
+      </c>
+      <c r="J728" t="inlineStr">
+        <is>
+          <t>Abisogun compound</t>
+        </is>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>LVASA/4/2058/7</t>
+        </is>
+      </c>
+      <c r="M728" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N728" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O728" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P728" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q728" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729">
+        <v>9390</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D729">
+        <v>28</v>
+      </c>
+      <c r="E729" s="2">
+        <v>45385</v>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>ILASHE BEACH, IBESHE</t>
+        </is>
+      </c>
+      <c r="I729">
+        <v>2058</v>
+      </c>
+      <c r="J729" t="inlineStr">
+        <is>
+          <t>Abisogun compound</t>
+        </is>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>LVASA/4/2058/7</t>
+        </is>
+      </c>
+      <c r="M729" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N729" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O729" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P729" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q729" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730">
+        <v>9399</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D730">
+        <v>26</v>
+      </c>
+      <c r="E730" s="2">
+        <v>45418</v>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>OJORA / AGBO ELEGBA STREET, ABETE</t>
+        </is>
+      </c>
+      <c r="J730" t="inlineStr">
+        <is>
+          <t>3 agbo elegba street</t>
+        </is>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>2nd boys quarter</t>
+        </is>
+      </c>
+      <c r="M730" t="inlineStr">
+        <is>
+          <t>tab19</t>
+        </is>
+      </c>
+      <c r="N730" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O730" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="P730" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q730" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731">
+        <v>9399</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D731">
+        <v>26</v>
+      </c>
+      <c r="E731" s="2">
+        <v>45418</v>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>OJORA / AGBO ELEGBA STREET, ABETE</t>
+        </is>
+      </c>
+      <c r="J731" t="inlineStr">
+        <is>
+          <t>3 agbo elegba street</t>
+        </is>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>2nd boys quarter</t>
+        </is>
+      </c>
+      <c r="M731" t="inlineStr">
+        <is>
+          <t>tab19</t>
+        </is>
+      </c>
+      <c r="N731" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O731" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="P731" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q731" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732">
+        <v>9410</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D732">
+        <v>28</v>
+      </c>
+      <c r="E732" s="2">
+        <v>45460</v>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>RAIMI STR/BAALE STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="I732">
+        <v>698</v>
+      </c>
+      <c r="J732" t="inlineStr">
+        <is>
+          <t>No 9 Raimi Street Makoko Lagos mainland</t>
+        </is>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>LVASA/15/698/3</t>
+        </is>
+      </c>
+      <c r="M732" t="inlineStr">
+        <is>
+          <t>tab10</t>
+        </is>
+      </c>
+      <c r="N732" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O732" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P732" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q732" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733">
+        <v>9410</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D733">
+        <v>30</v>
+      </c>
+      <c r="E733" s="2">
+        <v>45553</v>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>RAIMI STR/BAALE STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="I733">
+        <v>698</v>
+      </c>
+      <c r="J733" t="inlineStr">
+        <is>
+          <t>No 9 Raimi Street Makoko Lagos mainland</t>
+        </is>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>LVASA/15/698/3</t>
+        </is>
+      </c>
+      <c r="M733" t="inlineStr">
+        <is>
+          <t>tab10</t>
+        </is>
+      </c>
+      <c r="N733" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O733" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P733" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q733" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734">
+        <v>9411</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D734">
+        <v>34</v>
+      </c>
+      <c r="E734" s="2">
+        <v>45397</v>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>RAIMI STR/BAALE STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="I734">
+        <v>698</v>
+      </c>
+      <c r="J734" t="inlineStr">
+        <is>
+          <t>No 9 Raimi Street Makoko Lagos mainland</t>
+        </is>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>LVASA/15/698/4</t>
+        </is>
+      </c>
+      <c r="M734" t="inlineStr">
+        <is>
+          <t>tab10</t>
+        </is>
+      </c>
+      <c r="N734" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O734" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P734" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q734" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735">
+        <v>9417</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D735">
+        <v>24</v>
+      </c>
+      <c r="E735" s="2">
+        <v>45551</v>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>RAIMI STR/BAALE STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="I735">
+        <v>698</v>
+      </c>
+      <c r="J735" t="inlineStr">
+        <is>
+          <t>No 10 Raimi Street Makoko Lagos mainland</t>
+        </is>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>LVASA/15/698/10</t>
+        </is>
+      </c>
+      <c r="M735" t="inlineStr">
+        <is>
+          <t>tab10</t>
+        </is>
+      </c>
+      <c r="N735" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O735" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P735" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q735" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736">
+        <v>9418</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D736">
+        <v>0</v>
+      </c>
+      <c r="E736" s="2">
+        <v>45405</v>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>RAIMI STR/BAALE STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="I736">
+        <v>698</v>
+      </c>
+      <c r="J736" t="inlineStr">
+        <is>
+          <t>No 7 Raimi Street Makoko Lagos mainland</t>
+        </is>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>LVASA/15/698/11</t>
+        </is>
+      </c>
+      <c r="M736" t="inlineStr">
+        <is>
+          <t>tab10</t>
+        </is>
+      </c>
+      <c r="N736" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O736" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P736" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q736" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737">
+        <v>9436</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D737">
+        <v>27</v>
+      </c>
+      <c r="E737" s="2">
+        <v>45523</v>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>RAIMI STR/BAALE STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="I737">
+        <v>698</v>
+      </c>
+      <c r="J737" t="inlineStr">
+        <is>
+          <t>No 12 Raimi Street Makoko Lagos mainland</t>
+        </is>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>LVASA/15/698/29</t>
+        </is>
+      </c>
+      <c r="M737" t="inlineStr">
+        <is>
+          <t>tab10</t>
+        </is>
+      </c>
+      <c r="N737" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O737" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="P737" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q737" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738">
+        <v>9451</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D738">
+        <v>38</v>
+      </c>
+      <c r="E738" s="2">
+        <v>45483</v>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>LUKMAN STREET, IGANDO</t>
+        </is>
+      </c>
+      <c r="I738">
+        <v>5792</v>
+      </c>
+      <c r="J738" t="inlineStr">
+        <is>
+          <t>1 Arikosere street</t>
+        </is>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>LVASA/3/5792/2</t>
+        </is>
+      </c>
+      <c r="M738" t="inlineStr">
+        <is>
+          <t>tab17</t>
+        </is>
+      </c>
+      <c r="N738" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O738" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P738" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q738" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739">
+        <v>9495</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D739">
+        <v>34</v>
+      </c>
+      <c r="E739" s="2">
+        <v>45456</v>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>LUKMAN STREET, IGANDO</t>
+        </is>
+      </c>
+      <c r="I739">
+        <v>5792</v>
+      </c>
+      <c r="J739" t="inlineStr">
+        <is>
+          <t>5 Arikosere street</t>
+        </is>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>LVASA/3/5792/6</t>
+        </is>
+      </c>
+      <c r="M739" t="inlineStr">
+        <is>
+          <t>tab17</t>
+        </is>
+      </c>
+      <c r="N739" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O739" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P739" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q739" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740">
+        <v>9558</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D740">
+        <v>35</v>
+      </c>
+      <c r="E740" s="2">
+        <v>45455</v>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>LASISI IGE STREET, IKOTUN</t>
+        </is>
+      </c>
+      <c r="J740" t="inlineStr">
+        <is>
+          <t>31 LASISI IGE STREET IGANDO</t>
+        </is>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>1 STOREY BUILDING</t>
+        </is>
+      </c>
+      <c r="M740" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="N740" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O740" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P740" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q740" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741">
+        <v>9558</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D741">
+        <v>35</v>
+      </c>
+      <c r="E741" s="2">
+        <v>45455</v>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>LASISI IGE STREET, IKOTUN</t>
+        </is>
+      </c>
+      <c r="J741" t="inlineStr">
+        <is>
+          <t>31 LASISI IGE STREET IGANDO</t>
+        </is>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>1 STOREY BUILDING</t>
+        </is>
+      </c>
+      <c r="M741" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="N741" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O741" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P741" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q741" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742">
+        <v>9562</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D742">
+        <v>27</v>
+      </c>
+      <c r="E742" s="2">
+        <v>45554</v>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>LASISI IGE STREET, IKOTUN</t>
+        </is>
+      </c>
+      <c r="J742" t="inlineStr">
+        <is>
+          <t>25 MATTHEW OJO STREET</t>
+        </is>
+      </c>
+      <c r="M742" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="N742" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O742" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P742" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q742" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743">
+        <v>9562</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D743">
+        <v>27</v>
+      </c>
+      <c r="E743" s="2">
+        <v>45554</v>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>LASISI IGE STREET, IKOTUN</t>
+        </is>
+      </c>
+      <c r="J743" t="inlineStr">
+        <is>
+          <t>25 MATTHEW OJO STREET</t>
+        </is>
+      </c>
+      <c r="M743" t="inlineStr">
+        <is>
+          <t>tab3</t>
+        </is>
+      </c>
+      <c r="N743" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O743" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P743" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q743" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744">
+        <v>9593</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D744">
+        <v>34</v>
+      </c>
+      <c r="E744" s="2">
+        <v>45525</v>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>BOLA ONIGBOGI I, IJU-ISHAGA</t>
+        </is>
+      </c>
+      <c r="I744">
+        <v>1804</v>
+      </c>
+      <c r="J744" t="inlineStr">
+        <is>
+          <t>4 Sanusi Street</t>
+        </is>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>LVASA/10/1804/21</t>
+        </is>
+      </c>
+      <c r="M744" t="inlineStr">
+        <is>
+          <t>tab54</t>
+        </is>
+      </c>
+      <c r="N744" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O744" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="P744" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q744" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745">
+        <v>9593</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D745">
+        <v>34</v>
+      </c>
+      <c r="E745" s="2">
+        <v>45525</v>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>BOLA ONIGBOGI I, IJU-ISHAGA</t>
+        </is>
+      </c>
+      <c r="I745">
+        <v>1804</v>
+      </c>
+      <c r="J745" t="inlineStr">
+        <is>
+          <t>4 Sanusi Street</t>
+        </is>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>LVASA/10/1804/21</t>
+        </is>
+      </c>
+      <c r="M745" t="inlineStr">
+        <is>
+          <t>tab54</t>
+        </is>
+      </c>
+      <c r="N745" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O745" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="P745" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q745" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746">
+        <v>9595</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D746">
+        <v>15</v>
+      </c>
+      <c r="E746" s="2">
+        <v>45497</v>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>BOLA ONIGBOGI I, IJU-ISHAGA</t>
+        </is>
+      </c>
+      <c r="I746">
+        <v>1804</v>
+      </c>
+      <c r="J746" t="inlineStr">
+        <is>
+          <t>1 Sanusi Street</t>
+        </is>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>LVASA/10/1804/23</t>
+        </is>
+      </c>
+      <c r="M746" t="inlineStr">
+        <is>
+          <t>tab54</t>
+        </is>
+      </c>
+      <c r="N746" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O746" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="P746" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q746" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747">
+        <v>9595</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D747">
+        <v>15</v>
+      </c>
+      <c r="E747" s="2">
+        <v>45497</v>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>BOLA ONIGBOGI I, IJU-ISHAGA</t>
+        </is>
+      </c>
+      <c r="I747">
+        <v>1804</v>
+      </c>
+      <c r="J747" t="inlineStr">
+        <is>
+          <t>1 Sanusi Street</t>
+        </is>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>LVASA/10/1804/23</t>
+        </is>
+      </c>
+      <c r="M747" t="inlineStr">
+        <is>
+          <t>tab54</t>
+        </is>
+      </c>
+      <c r="N747" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O747" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="P747" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q747" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748">
+        <v>9678</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>9365</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D748">
+        <v>30</v>
+      </c>
+      <c r="E748" s="2">
+        <v>45434</v>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>32 IMOBI STREET, SHASHA</t>
+        </is>
+      </c>
+      <c r="I748">
+        <v>4454</v>
+      </c>
+      <c r="J748" t="inlineStr">
+        <is>
+          <t>6 Malad street</t>
+        </is>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>LVASA/3/4454/20</t>
+        </is>
+      </c>
+      <c r="M748" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N748" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O748" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P748" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q748" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749">
+        <v>9692</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>9380</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D749">
+        <v>31</v>
+      </c>
+      <c r="E749" s="2">
+        <v>45554</v>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>32 IMOBI STREET, SHASHA</t>
+        </is>
+      </c>
+      <c r="I749">
+        <v>4454</v>
+      </c>
+      <c r="J749" t="inlineStr">
+        <is>
+          <t>13 Imobi street</t>
+        </is>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>LVASA/3/4454/34</t>
+        </is>
+      </c>
+      <c r="M749" t="inlineStr">
+        <is>
+          <t>tab7</t>
+        </is>
+      </c>
+      <c r="N749" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O749" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P749" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q749" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750">
+        <v>9702</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D750">
+        <v>37</v>
+      </c>
+      <c r="E750" s="2">
+        <v>45516</v>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>28, RABIU ADIO, TOLU</t>
+        </is>
+      </c>
+      <c r="J750" t="inlineStr">
+        <is>
+          <t>NO 18,  RABBIU ADIO STREET, AJEGUNLE, AJEROMI IFELODUN, LAGOS STATE</t>
+        </is>
+      </c>
+      <c r="M750" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N750" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O750" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P750" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q750" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751">
+        <v>9703</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D751">
+        <v>41</v>
+      </c>
+      <c r="E751" s="2">
+        <v>45434</v>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>28, RABIU ADIO, TOLU</t>
+        </is>
+      </c>
+      <c r="J751" t="inlineStr">
+        <is>
+          <t>NO 20,  RABBIU ADIO STREET, AJEGUNLE, AJEROMI IFELODUN, LAGOS STATE</t>
+        </is>
+      </c>
+      <c r="M751" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="N751" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O751" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P751" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q751" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752">
+        <v>9747</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D752">
+        <v>27</v>
+      </c>
+      <c r="E752" s="2">
+        <v>45364</v>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>IDI ABA, IGBOLOGUN VIL.</t>
+        </is>
+      </c>
+      <c r="I752">
+        <v>904</v>
+      </c>
+      <c r="J752" t="inlineStr">
+        <is>
+          <t>6 Navy compound</t>
+        </is>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>LVASA/4/904/16</t>
+        </is>
+      </c>
+      <c r="M752" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N752" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O752" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P752" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q752" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753">
+        <v>9747</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D753">
+        <v>27</v>
+      </c>
+      <c r="E753" s="2">
+        <v>45364</v>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>IDI ABA, IGBOLOGUN VIL.</t>
+        </is>
+      </c>
+      <c r="I753">
+        <v>904</v>
+      </c>
+      <c r="J753" t="inlineStr">
+        <is>
+          <t>6 Navy compound</t>
+        </is>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>LVASA/4/904/16</t>
+        </is>
+      </c>
+      <c r="M753" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N753" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O753" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P753" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q753" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754">
+        <v>9747</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D754">
+        <v>29</v>
+      </c>
+      <c r="E754" s="2">
+        <v>45539</v>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>IDI ABA, IGBOLOGUN VIL.</t>
+        </is>
+      </c>
+      <c r="I754">
+        <v>904</v>
+      </c>
+      <c r="J754" t="inlineStr">
+        <is>
+          <t>6 Navy compound</t>
+        </is>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>LVASA/4/904/16</t>
+        </is>
+      </c>
+      <c r="M754" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N754" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O754" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P754" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q754" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755">
+        <v>9747</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D755">
+        <v>29</v>
+      </c>
+      <c r="E755" s="2">
+        <v>45539</v>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>IDI ABA, IGBOLOGUN VIL.</t>
+        </is>
+      </c>
+      <c r="I755">
+        <v>904</v>
+      </c>
+      <c r="J755" t="inlineStr">
+        <is>
+          <t>6 Navy compound</t>
+        </is>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>LVASA/4/904/16</t>
+        </is>
+      </c>
+      <c r="M755" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="N755" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O755" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P755" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q755" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756">
+        <v>9766</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D756">
+        <v>30</v>
+      </c>
+      <c r="E756" s="2">
+        <v>45469</v>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="J756" t="inlineStr">
+        <is>
+          <t>No 1, Office street off old Ojo road Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="M756" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N756" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O756" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P756" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q756" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757">
+        <v>9777</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D757">
+        <v>34</v>
+      </c>
+      <c r="E757" s="2">
+        <v>45427</v>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="J757" t="inlineStr">
+        <is>
+          <t>21, Olayemi str off old Ojo road Mazamaza Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="M757" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N757" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O757" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P757" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q757" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758">
+        <v>9777</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D758">
+        <v>30</v>
+      </c>
+      <c r="E758" s="2">
+        <v>45475</v>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="J758" t="inlineStr">
+        <is>
+          <t>21, Olayemi str off old Ojo road Mazamaza Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="M758" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N758" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O758" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P758" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q758" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759">
+        <v>9783</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D759">
+        <v>32</v>
+      </c>
+      <c r="E759" s="2">
+        <v>45520</v>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="J759" t="inlineStr">
+        <is>
+          <t>33, Olayemi str off old Ojo road Mazamaza Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="M759" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N759" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O759" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P759" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q759" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760">
+        <v>9784</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D760">
+        <v>38</v>
+      </c>
+      <c r="E760" s="2">
+        <v>45544</v>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="J760" t="inlineStr">
+        <is>
+          <t>39, Olayemi str off old Ojo road Mazamaza Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="M760" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N760" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O760" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P760" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q760" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761">
+        <v>9784</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D761">
+        <v>30</v>
+      </c>
+      <c r="E761" s="2">
+        <v>45453</v>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="J761" t="inlineStr">
+        <is>
+          <t>39, Olayemi str off old Ojo road Mazamaza Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="M761" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N761" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O761" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P761" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q761" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762">
+        <v>9795</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D762">
+        <v>34</v>
+      </c>
+      <c r="E762" s="2">
+        <v>45537</v>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>SAIBU /BADUM / YUSUF, MASAMASA</t>
+        </is>
+      </c>
+      <c r="J762" t="inlineStr">
+        <is>
+          <t>4, Shaibu Close, Villa Park</t>
+        </is>
+      </c>
+      <c r="M762" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N762" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="O762" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P762" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q762" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763">
+        <v>9804</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D763">
+        <v>35</v>
+      </c>
+      <c r="E763" s="2">
+        <v>45435</v>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>SAIBU /BADUM / YUSUF, MASAMASA</t>
+        </is>
+      </c>
+      <c r="J763" t="inlineStr">
+        <is>
+          <t>44, Shaibu Street off Old Ojo Road, Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="M763" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N763" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O763" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P763" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q763" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764">
+        <v>9874</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E764" s="2">
+        <v>45455</v>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>AWOPEJU / OGUNBUSOLA, IJU-ISHAGA</t>
+        </is>
+      </c>
+      <c r="J764" t="inlineStr">
+        <is>
+          <t>18 Awopeju</t>
+        </is>
+      </c>
+      <c r="M764" t="inlineStr">
+        <is>
+          <t>tab54</t>
+        </is>
+      </c>
+      <c r="N764" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O764" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="P764" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q764" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765">
+        <v>9874</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E765" s="2">
+        <v>45455</v>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>AWOPEJU / OGUNBUSOLA, IJU-ISHAGA</t>
+        </is>
+      </c>
+      <c r="J765" t="inlineStr">
+        <is>
+          <t>18 Awopeju</t>
+        </is>
+      </c>
+      <c r="M765" t="inlineStr">
+        <is>
+          <t>tab54</t>
+        </is>
+      </c>
+      <c r="N765" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O765" t="inlineStr">
+        <is>
+          <t>OLUSOJI-AFOLABI OLUWATOSIN
+ODUMERU SAMIAT</t>
+        </is>
+      </c>
+      <c r="P765" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q765" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766">
+        <v>9903</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D766">
+        <v>30</v>
+      </c>
+      <c r="E766" s="2">
+        <v>45394</v>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>BAALE / FADEYI, IGBO EFON</t>
+        </is>
+      </c>
+      <c r="J766" t="inlineStr">
+        <is>
+          <t>Fadeyi no 15</t>
+        </is>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>Building 1</t>
+        </is>
+      </c>
+      <c r="M766" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="N766" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O766" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="P766" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q766" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767">
+        <v>9903</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D767">
+        <v>30</v>
+      </c>
+      <c r="E767" s="2">
+        <v>45394</v>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>BAALE / FADEYI, IGBO EFON</t>
+        </is>
+      </c>
+      <c r="J767" t="inlineStr">
+        <is>
+          <t>Fadeyi no 15</t>
+        </is>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>Building 1</t>
+        </is>
+      </c>
+      <c r="M767" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="N767" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O767" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="P767" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q767" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768">
+        <v>9914</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D768">
+        <v>31</v>
+      </c>
+      <c r="E768" s="2">
+        <v>45476</v>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>BAALE / FADEYI, IGBO EFON</t>
+        </is>
+      </c>
+      <c r="J768" t="inlineStr">
+        <is>
+          <t>Building by the right in Abogun family compound</t>
+        </is>
+      </c>
+      <c r="M768" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="N768" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O768" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="P768" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q768" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769">
+        <v>9914</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D769">
+        <v>31</v>
+      </c>
+      <c r="E769" s="2">
+        <v>45476</v>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>BAALE / FADEYI, IGBO EFON</t>
+        </is>
+      </c>
+      <c r="J769" t="inlineStr">
+        <is>
+          <t>Building by the right in Abogun family compound</t>
+        </is>
+      </c>
+      <c r="M769" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="N769" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O769" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="P769" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q769" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770">
+        <v>9996</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D770">
+        <v>25</v>
+      </c>
+      <c r="E770" s="2">
+        <v>45399</v>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>OKE IMOYE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="I770">
+        <v>7130</v>
+      </c>
+      <c r="J770" t="inlineStr">
+        <is>
+          <t>12 oke imoye street off isheri oshun road ikotun ijegun</t>
+        </is>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>LVASA/3/7130/6</t>
+        </is>
+      </c>
+      <c r="M770" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N770" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O770" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P770" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q770" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771">
+        <v>9998</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D771">
+        <v>22</v>
+      </c>
+      <c r="E771" s="2">
+        <v>45519</v>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>OKE IMOYE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="I771">
+        <v>7130</v>
+      </c>
+      <c r="J771" t="inlineStr">
+        <is>
+          <t>24 oke imoye street off isheri oshun road ikotun ijegun</t>
+        </is>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>LVASA/3/7130/8</t>
+        </is>
+      </c>
+      <c r="M771" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N771" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O771" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P771" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q771" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772">
+        <v>10031</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D772">
+        <v>20</v>
+      </c>
+      <c r="E772" s="2">
+        <v>45457</v>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>OKE IMOYE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="I772">
+        <v>7130</v>
+      </c>
+      <c r="J772" t="inlineStr">
+        <is>
+          <t>75 oke imoye street off isheri oshun road ikotun ijegun</t>
+        </is>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>LVASA/3/7130/41</t>
+        </is>
+      </c>
+      <c r="M772" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N772" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="O772" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P772" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q772" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773">
+        <v>10050</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D773">
+        <v>29</v>
+      </c>
+      <c r="E773" s="2">
+        <v>45489</v>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>AFUWAPE STREET, IGANDO</t>
+        </is>
+      </c>
+      <c r="I773">
+        <v>5964</v>
+      </c>
+      <c r="J773" t="inlineStr">
+        <is>
+          <t>18 Ayodele Olasanmi street igando Egan</t>
+        </is>
+      </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>LVASA/3/5964/18</t>
+        </is>
+      </c>
+      <c r="M773" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N773" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O773" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P773" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q773" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774">
+        <v>10061</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D774">
+        <v>27</v>
+      </c>
+      <c r="E774" s="2">
+        <v>45519</v>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>AFUWAPE STREET, IGANDO</t>
+        </is>
+      </c>
+      <c r="I774">
+        <v>5964</v>
+      </c>
+      <c r="J774" t="inlineStr">
+        <is>
+          <t>34 Ayodele Olasanmi street igando Egan</t>
+        </is>
+      </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>LVASA/3/5964/28</t>
+        </is>
+      </c>
+      <c r="M774" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N774" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O774" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P774" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q774" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775">
+        <v>10064</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D775">
+        <v>33</v>
+      </c>
+      <c r="E775" s="2">
+        <v>45397</v>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>AFUWAPE STREET, IGANDO</t>
+        </is>
+      </c>
+      <c r="I775">
+        <v>5964</v>
+      </c>
+      <c r="J775" t="inlineStr">
+        <is>
+          <t>36 Ayodele Olasanmi street igando Egan</t>
+        </is>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>LVASA/3/5964/31</t>
+        </is>
+      </c>
+      <c r="M775" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="N775" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="O775" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="P775" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q775" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776">
+        <v>10067</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D776">
+        <v>29</v>
+      </c>
+      <c r="E776" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>Kosofe</t>
+        </is>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>BAMGBOYE STREET, AGILITI</t>
+        </is>
+      </c>
+      <c r="I776">
+        <v>390</v>
+      </c>
+      <c r="J776" t="inlineStr">
+        <is>
+          <t>4, BAMGBOYE STREET AGILITI</t>
+        </is>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>LVASA/13/390/11</t>
+        </is>
+      </c>
+      <c r="M776" t="inlineStr">
+        <is>
+          <t>tab14</t>
+        </is>
+      </c>
+      <c r="N776" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="O776" t="inlineStr">
+        <is>
+          <t>ARANJU OLUKUNLE
+FUNMI AGBAJE</t>
+        </is>
+      </c>
+      <c r="P776" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q776" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777">
+        <v>10067</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D777">
+        <v>29</v>
+      </c>
+      <c r="E777" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>Kosofe</t>
+        </is>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>BAMGBOYE STREET, AGILITI</t>
+        </is>
+      </c>
+      <c r="I777">
+        <v>390</v>
+      </c>
+      <c r="J777" t="inlineStr">
+        <is>
+          <t>4, BAMGBOYE STREET AGILITI</t>
+        </is>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>LVASA/13/390/11</t>
+        </is>
+      </c>
+      <c r="M777" t="inlineStr">
+        <is>
+          <t>tab14</t>
+        </is>
+      </c>
+      <c r="N777" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="O777" t="inlineStr">
+        <is>
+          <t>ARANJU OLUKUNLE
+FUNMI AGBAJE</t>
+        </is>
+      </c>
+      <c r="P777" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q777" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778">
+        <v>10084</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D778">
+        <v>30</v>
+      </c>
+      <c r="E778" s="2">
+        <v>45488</v>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>Kosofe</t>
+        </is>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>BAMGBOYE STREET, AGILITI</t>
+        </is>
+      </c>
+      <c r="I778">
+        <v>390</v>
+      </c>
+      <c r="J778" t="inlineStr">
+        <is>
+          <t>21, BAMGBOYE STREET AGILITI</t>
+        </is>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>LVASA/13/390/27</t>
+        </is>
+      </c>
+      <c r="M778" t="inlineStr">
+        <is>
+          <t>tab14</t>
+        </is>
+      </c>
+      <c r="N778" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="O778" t="inlineStr">
+        <is>
+          <t>ARANJU OLUKUNLE
+FUNMI AGBAJE</t>
+        </is>
+      </c>
+      <c r="P778" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q778" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779">
+        <v>10084</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D779">
+        <v>30</v>
+      </c>
+      <c r="E779" s="2">
+        <v>45488</v>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>Kosofe</t>
+        </is>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>BAMGBOYE STREET, AGILITI</t>
+        </is>
+      </c>
+      <c r="I779">
+        <v>390</v>
+      </c>
+      <c r="J779" t="inlineStr">
+        <is>
+          <t>21, BAMGBOYE STREET AGILITI</t>
+        </is>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>LVASA/13/390/27</t>
+        </is>
+      </c>
+      <c r="M779" t="inlineStr">
+        <is>
+          <t>tab14</t>
+        </is>
+      </c>
+      <c r="N779" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="O779" t="inlineStr">
+        <is>
+          <t>ARANJU OLUKUNLE
+FUNMI AGBAJE</t>
+        </is>
+      </c>
+      <c r="P779" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q779" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780">
+        <v>10140</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D780">
+        <v>28</v>
+      </c>
+      <c r="E780" s="2">
+        <v>45552</v>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>ETAOKO STREET/OLASUIYE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="J780" t="inlineStr">
+        <is>
+          <t>No 41, Olasuiye str, Ijegun Amuwo Odofin Lagos.</t>
+        </is>
+      </c>
+      <c r="M780" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="N780" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="O780" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="P780" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="Q780" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
